--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2102488.494548021</v>
+        <v>2101768.959491924</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12134160.64847963</v>
+        <v>12134160.64847962</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6581246.908501623</v>
+        <v>6581246.908501622</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>190.1946461447232</v>
       </c>
       <c r="F2" t="n">
-        <v>364.4883941741974</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>104.3557183340728</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>97.39478752819004</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>104.118700598091</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -910,10 +910,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>135.1450209835886</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>131.2127360445742</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>81.83498525794187</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1141,19 +1141,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>260.6821797334797</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>109.8059515952207</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
@@ -1293,10 +1293,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>126.9549655344217</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>134.6953597735375</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.631722686833</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068498</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924939</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2552441991982</v>
+        <v>400.255244199198</v>
       </c>
       <c r="H11" t="n">
-        <v>294.4756657128045</v>
+        <v>294.4756657128044</v>
       </c>
       <c r="I11" t="n">
-        <v>32.9893179865942</v>
+        <v>32.98931798659411</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>102.4023775411827</v>
+        <v>102.4023775411826</v>
       </c>
       <c r="T11" t="n">
         <v>218.5393434826368</v>
@@ -1429,16 +1429,16 @@
         <v>255.7681261025718</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026567</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446587</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5762655848402</v>
       </c>
       <c r="H13" t="n">
-        <v>142.1970742928834</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>11.43956918300983</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.75283753914612</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.1176634555229</v>
@@ -1587,16 +1587,16 @@
         <v>277.3816148643058</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>246.3555598311733</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868342</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068498</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924939</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2552441991982</v>
+        <v>400.255244199198</v>
       </c>
       <c r="H14" t="n">
-        <v>294.4756657128045</v>
+        <v>294.4756657128044</v>
       </c>
       <c r="I14" t="n">
-        <v>32.9893179865942</v>
+        <v>32.98931798659411</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>102.4023775411827</v>
+        <v>102.4023775411833</v>
       </c>
       <c r="T14" t="n">
-        <v>218.5393434826362</v>
+        <v>218.5393434826361</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7681261025721</v>
+        <v>255.7681261025718</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026567</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446587</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>116.1682207364542</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>7.82998271466016</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>45.75283753914612</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.1176634555229</v>
@@ -1827,7 +1827,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.631722686833</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068498</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924953</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2552441991982</v>
+        <v>400.255244199198</v>
       </c>
       <c r="H17" t="n">
-        <v>294.4756657128045</v>
+        <v>294.4756657128044</v>
       </c>
       <c r="I17" t="n">
-        <v>32.9893179865942</v>
+        <v>32.98931798659411</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>102.4023775411827</v>
+        <v>102.4023775411823</v>
       </c>
       <c r="T17" t="n">
-        <v>218.5393434826362</v>
+        <v>218.5393434826361</v>
       </c>
       <c r="U17" t="n">
-        <v>255.768126102572</v>
+        <v>255.7681261025727</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026567</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446587</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>102.6726589827891</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5762655848402</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>45.75283753914612</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.1176634555229</v>
+        <v>114.142727708792</v>
       </c>
       <c r="T19" t="n">
         <v>240.8284708489147</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.631722686833</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068498</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924939</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.255244199198</v>
       </c>
       <c r="H20" t="n">
-        <v>294.4756657128045</v>
+        <v>294.4756657128044</v>
       </c>
       <c r="I20" t="n">
-        <v>32.9893179865942</v>
+        <v>32.98931798659411</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.4023775411827</v>
+        <v>102.4023775411826</v>
       </c>
       <c r="T20" t="n">
-        <v>218.5393434826362</v>
+        <v>218.5393434826361</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7681261025736</v>
+        <v>255.768126102572</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026567</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="21">
@@ -2244,16 +2244,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>116.1682207364542</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5762655848402</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>45.75283753914612</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.1176634555229</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>145.7877102011312</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.4756657128044</v>
       </c>
       <c r="I23" t="n">
-        <v>32.9893179865941</v>
+        <v>32.98931798659411</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>255.768126102572</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -2481,19 +2481,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5762655848402</v>
       </c>
       <c r="H25" t="n">
-        <v>45.34678093782467</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>98.22553099383775</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>45.75283753914613</v>
       </c>
       <c r="S25" t="n">
         <v>168.1176634555229</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3816148643058</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>102.3782416115151</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.4756657128044</v>
       </c>
       <c r="I26" t="n">
-        <v>32.9893179865941</v>
+        <v>32.98931798659411</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>218.5393434826361</v>
       </c>
       <c r="U26" t="n">
-        <v>255.768126102572</v>
+        <v>255.7681261025718</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.54925018969787</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>25.84880918419137</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2730,7 +2730,7 @@
         <v>164.5762655848402</v>
       </c>
       <c r="H28" t="n">
-        <v>142.1970742928834</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>45.75283753914612</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.1176634555229</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.8284708489147</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3816148643058</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.4756657128044</v>
       </c>
       <c r="I29" t="n">
-        <v>32.9893179865941</v>
+        <v>32.98931798659411</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5762655848402</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.1970742928834</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.22553099383775</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>45.75283753914612</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>114.142727708792</v>
       </c>
       <c r="T31" t="n">
         <v>240.8284708489147</v>
@@ -3009,16 +3009,16 @@
         <v>277.3816148643058</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>112.2388634993316</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.4756657128044</v>
       </c>
       <c r="I32" t="n">
-        <v>32.9893179865941</v>
+        <v>32.98931798659411</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>76.12209689850688</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>45.75283753914612</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.1176634555229</v>
+        <v>114.142727708792</v>
       </c>
       <c r="T34" t="n">
         <v>240.8284708489147</v>
@@ -3286,7 +3286,7 @@
         <v>294.4756657128044</v>
       </c>
       <c r="I35" t="n">
-        <v>32.9893179865941</v>
+        <v>32.98931798659411</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>218.5393434826361</v>
       </c>
       <c r="U35" t="n">
-        <v>255.768126102572</v>
+        <v>255.7681261025727</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>70.41538319730817</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5762655848402</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.1970742928834</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.22553099383775</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>11.90090287980757</v>
+        <v>45.75283753914613</v>
       </c>
       <c r="S37" t="n">
         <v>168.1176634555229</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.8284708489147</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3816148643058</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3505,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868351</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3523,7 +3523,7 @@
         <v>294.4756657128044</v>
       </c>
       <c r="I38" t="n">
-        <v>32.9893179865941</v>
+        <v>32.98931798659411</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3663,13 +3663,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>14.63976479171443</v>
+        <v>81.60844165463071</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3681,7 +3681,7 @@
         <v>142.1970742928834</v>
       </c>
       <c r="I40" t="n">
-        <v>98.22553099383775</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>45.75283753914612</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.1176634555229</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.8284708489147</v>
       </c>
       <c r="U40" t="n">
         <v>277.3816148643058</v>
@@ -3760,7 +3760,7 @@
         <v>294.4756657128044</v>
       </c>
       <c r="I41" t="n">
-        <v>32.9893179865941</v>
+        <v>32.98931798659411</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>102.4023775411826</v>
       </c>
       <c r="T41" t="n">
-        <v>218.5393434826368</v>
+        <v>218.5393434826361</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7681261025718</v>
+        <v>255.7681261025727</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5762655848402</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.22553099383775</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>45.75283753914612</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.1176634555229</v>
@@ -3954,7 +3954,7 @@
         <v>240.8284708489147</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3816148643058</v>
+        <v>223.4066791175749</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>58.3833121329215</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868342</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3997,7 +3997,7 @@
         <v>294.4756657128044</v>
       </c>
       <c r="I44" t="n">
-        <v>32.98931798659638</v>
+        <v>32.98931798659411</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.1970742928834</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.1176634555229</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.8284708489147</v>
       </c>
       <c r="U46" t="n">
-        <v>163.926010195957</v>
+        <v>277.3816148643058</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>132.0374726979621</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1312.407503826393</v>
+        <v>1100.603583589459</v>
       </c>
       <c r="C2" t="n">
-        <v>885.5067738396929</v>
+        <v>1077.743257643163</v>
       </c>
       <c r="D2" t="n">
-        <v>866.2545570650972</v>
+        <v>654.4506368281629</v>
       </c>
       <c r="E2" t="n">
-        <v>440.2776172129547</v>
+        <v>462.3348326415738</v>
       </c>
       <c r="F2" t="n">
-        <v>72.10752208750284</v>
+        <v>37.21065083097405</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I2" t="n">
         <v>36.91199246082674</v>
@@ -4342,10 +4342,10 @@
         <v>1388.813716338606</v>
       </c>
       <c r="N2" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O2" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P2" t="n">
         <v>1845.599623041337</v>
@@ -4363,19 +4363,19 @@
         <v>1741.232328914477</v>
       </c>
       <c r="U2" t="n">
-        <v>1741.232328914477</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V2" t="n">
-        <v>1741.232328914477</v>
+        <v>1125.388004637139</v>
       </c>
       <c r="W2" t="n">
-        <v>1741.232328914477</v>
+        <v>1125.388004637139</v>
       </c>
       <c r="X2" t="n">
-        <v>1733.552734122628</v>
+        <v>1117.70840984529</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.255868117923</v>
+        <v>1116.411543840584</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>44.35863542273854</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
-        <v>501.1445421254694</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L3" t="n">
-        <v>957.9304488282003</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="M3" t="n">
+        <v>316.0561247023296</v>
+      </c>
+      <c r="N3" t="n">
+        <v>772.8420314050604</v>
+      </c>
+      <c r="O3" t="n">
+        <v>850.0084995511718</v>
+      </c>
+      <c r="P3" t="n">
         <v>1306.794406253903</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1306.794406253903</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1763.580312956634</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1763.580312956634</v>
       </c>
       <c r="Q3" t="n">
         <v>1763.580312956634</v>
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.8868080513412</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="C4" t="n">
-        <v>515.8868080513412</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D4" t="n">
-        <v>352.5700351781119</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E4" t="n">
-        <v>352.5700351781119</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F4" t="n">
-        <v>180.7082609526723</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I4" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P4" t="n">
         <v>1718.599492800575</v>
@@ -4515,25 +4515,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1693.151193229447</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T4" t="n">
-        <v>1449.811845455347</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U4" t="n">
-        <v>1449.811845455347</v>
+        <v>1518.376561228814</v>
       </c>
       <c r="V4" t="n">
-        <v>1449.811845455347</v>
+        <v>1236.665093836843</v>
       </c>
       <c r="W4" t="n">
-        <v>1174.95944162786</v>
+        <v>1138.286520576045</v>
       </c>
       <c r="X4" t="n">
-        <v>932.3955450736648</v>
+        <v>1138.286520576045</v>
       </c>
       <c r="Y4" t="n">
-        <v>706.0527767634069</v>
+        <v>1138.286520576045</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>662.8940333798488</v>
+        <v>608.6939898724443</v>
       </c>
       <c r="C5" t="n">
-        <v>640.033707433553</v>
+        <v>503.5235852279079</v>
       </c>
       <c r="D5" t="n">
-        <v>620.7814906589573</v>
+        <v>80.23096441290814</v>
       </c>
       <c r="E5" t="n">
-        <v>598.8449548472189</v>
+        <v>58.29442860116974</v>
       </c>
       <c r="F5" t="n">
-        <v>577.7611770770231</v>
+        <v>37.21065083097405</v>
       </c>
       <c r="G5" t="n">
-        <v>173.4221146664718</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H5" t="n">
         <v>36.91199246082674</v>
@@ -4570,19 +4570,19 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>815.1719019525203</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L5" t="n">
-        <v>815.1719019525203</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M5" t="n">
-        <v>815.1719019525203</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N5" t="n">
-        <v>815.1719019525203</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O5" t="n">
-        <v>815.1719019525203</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P5" t="n">
         <v>1271.957808655251</v>
@@ -4603,16 +4603,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W5" t="n">
-        <v>1091.718858467933</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X5" t="n">
-        <v>679.9988596356804</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y5" t="n">
-        <v>678.7019936309748</v>
+        <v>1028.542354163974</v>
       </c>
     </row>
     <row r="6">
@@ -4658,16 +4658,16 @@
         <v>772.8420314050605</v>
       </c>
       <c r="N6" t="n">
-        <v>932.0278096358747</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O6" t="n">
-        <v>932.0278096358747</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P6" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.4501096775684</v>
+        <v>781.9743710538562</v>
       </c>
       <c r="C7" t="n">
-        <v>169.4501096775684</v>
+        <v>610.0018079327722</v>
       </c>
       <c r="D7" t="n">
-        <v>169.4501096775684</v>
+        <v>446.6850350595429</v>
       </c>
       <c r="E7" t="n">
-        <v>169.4501096775684</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="F7" t="n">
-        <v>169.4501096775684</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G7" t="n">
-        <v>169.4501096775684</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I7" t="n">
         <v>36.91199246082674</v>
@@ -4734,7 +4734,7 @@
         <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
         <v>1072.572152198911</v>
@@ -4752,25 +4752,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>1715.899408457862</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1715.899408457862</v>
       </c>
       <c r="U7" t="n">
-        <v>1385.086614473545</v>
+        <v>1715.899408457862</v>
       </c>
       <c r="V7" t="n">
-        <v>1103.375147081574</v>
+        <v>1715.899408457862</v>
       </c>
       <c r="W7" t="n">
-        <v>828.5227432540869</v>
+        <v>1441.047004630375</v>
       </c>
       <c r="X7" t="n">
-        <v>585.958846699892</v>
+        <v>1198.48310807618</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.616078389634</v>
+        <v>972.1403397659219</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1180.242103096954</v>
+        <v>275.443055230037</v>
       </c>
       <c r="C8" t="n">
-        <v>1157.381777150658</v>
+        <v>252.5827292837411</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.129560376062</v>
+        <v>233.3305125091455</v>
       </c>
       <c r="E8" t="n">
-        <v>712.1526205239198</v>
+        <v>211.3939766974071</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>190.3101989272114</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>1651.269438076291</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
         <v>1651.269438076291</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>1609.066928185038</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W8" t="n">
-        <v>1609.066928185038</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X8" t="n">
-        <v>1601.387333393189</v>
+        <v>1100.628689566677</v>
       </c>
       <c r="Y8" t="n">
-        <v>1196.05006334808</v>
+        <v>695.291419521567</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N9" t="n">
-        <v>1696.494830002562</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.7123380797763</v>
+        <v>545.9957668907073</v>
       </c>
       <c r="C10" t="n">
-        <v>438.7123380797763</v>
+        <v>374.0232037696233</v>
       </c>
       <c r="D10" t="n">
-        <v>310.474999156118</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4992,22 +4992,22 @@
         <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2041.81672018638</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>1761.632271686684</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.637375483782</v>
+        <v>1479.920804294713</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.784971656295</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="X10" t="n">
-        <v>855.2210751020999</v>
+        <v>962.5045039130309</v>
       </c>
       <c r="Y10" t="n">
-        <v>628.878306791842</v>
+        <v>736.161735602773</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2538.603920074439</v>
+        <v>2538.603920074438</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.703190087739</v>
+        <v>2111.703190087738</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.410569272739</v>
+        <v>1688.410569272738</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.433629420596</v>
+        <v>1262.433629420595</v>
       </c>
       <c r="F11" t="n">
-        <v>837.3094476099959</v>
+        <v>837.3094476099957</v>
       </c>
       <c r="G11" t="n">
-        <v>433.0112211461594</v>
+        <v>433.0112211461592</v>
       </c>
       <c r="H11" t="n">
-        <v>135.5610537594883</v>
+        <v>135.5610537594881</v>
       </c>
       <c r="I11" t="n">
         <v>102.238510338686</v>
       </c>
       <c r="J11" t="n">
-        <v>468.2388976794197</v>
+        <v>468.2388976794196</v>
       </c>
       <c r="K11" t="n">
         <v>1188.838320949273</v>
       </c>
       <c r="L11" t="n">
-        <v>1982.13219363696</v>
+        <v>2124.779347278405</v>
       </c>
       <c r="M11" t="n">
-        <v>1982.13219363696</v>
+        <v>2562.610189722501</v>
       </c>
       <c r="N11" t="n">
-        <v>2965.524711630631</v>
+        <v>3546.002707716173</v>
       </c>
       <c r="O11" t="n">
-        <v>3817.412839485926</v>
+        <v>4397.890835571468</v>
       </c>
       <c r="P11" t="n">
-        <v>4531.447520848759</v>
+        <v>5111.925516934301</v>
       </c>
       <c r="Q11" t="n">
-        <v>4991.855067719221</v>
+        <v>5111.925516934301</v>
       </c>
       <c r="R11" t="n">
         <v>5111.925516934301</v>
       </c>
       <c r="S11" t="n">
-        <v>5008.488771943208</v>
+        <v>5008.488771943207</v>
       </c>
       <c r="T11" t="n">
-        <v>4787.741960344585</v>
+        <v>4787.741960344584</v>
       </c>
       <c r="U11" t="n">
-        <v>4529.390317816735</v>
+        <v>4529.390317816734</v>
       </c>
       <c r="V11" t="n">
         <v>4171.900902942984</v>
       </c>
       <c r="W11" t="n">
-        <v>3775.509553243331</v>
+        <v>3775.50955324333</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.789554411078</v>
+        <v>3363.789554411077</v>
       </c>
       <c r="Y11" t="n">
-        <v>2958.452284365969</v>
+        <v>2958.452284365968</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>102.238510338686</v>
       </c>
       <c r="I12" t="n">
-        <v>102.238510338686</v>
+        <v>110.4224459405142</v>
       </c>
       <c r="J12" t="n">
-        <v>375.959186975785</v>
+        <v>384.1431225776131</v>
       </c>
       <c r="K12" t="n">
-        <v>969.9020629866468</v>
+        <v>384.1431225776131</v>
       </c>
       <c r="L12" t="n">
-        <v>969.9020629866468</v>
+        <v>384.1431225776131</v>
       </c>
       <c r="M12" t="n">
-        <v>1359.970051601111</v>
+        <v>384.1431225776131</v>
       </c>
       <c r="N12" t="n">
-        <v>1359.970051601111</v>
+        <v>1479.027587044674</v>
       </c>
       <c r="O12" t="n">
-        <v>1359.970051601111</v>
+        <v>1479.027587044674</v>
       </c>
       <c r="P12" t="n">
-        <v>1359.970051601111</v>
+        <v>1479.027587044674</v>
       </c>
       <c r="Q12" t="n">
         <v>1826.849052666708</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>761.8464601763443</v>
+        <v>941.8364785114846</v>
       </c>
       <c r="C13" t="n">
-        <v>589.8738970552603</v>
+        <v>769.8639153904006</v>
       </c>
       <c r="D13" t="n">
-        <v>589.8738970552603</v>
+        <v>606.5471425171713</v>
       </c>
       <c r="E13" t="n">
-        <v>423.6656912081138</v>
+        <v>440.3389366700249</v>
       </c>
       <c r="F13" t="n">
-        <v>423.6656912081138</v>
+        <v>268.4771624445852</v>
       </c>
       <c r="G13" t="n">
-        <v>257.4270391022146</v>
+        <v>102.238510338686</v>
       </c>
       <c r="H13" t="n">
-        <v>113.7936307255646</v>
+        <v>102.238510338686</v>
       </c>
       <c r="I13" t="n">
         <v>102.238510338686</v>
@@ -5223,28 +5223,28 @@
         <v>2300.449568058977</v>
       </c>
       <c r="R13" t="n">
-        <v>2254.234580645698</v>
+        <v>2300.449568058977</v>
       </c>
       <c r="S13" t="n">
-        <v>2084.418758973452</v>
+        <v>2130.633746386731</v>
       </c>
       <c r="T13" t="n">
-        <v>1841.157677307882</v>
+        <v>1887.372664721161</v>
       </c>
       <c r="U13" t="n">
-        <v>1560.974227949997</v>
+        <v>1607.189215363276</v>
       </c>
       <c r="V13" t="n">
-        <v>1279.262760558026</v>
+        <v>1358.345215533808</v>
       </c>
       <c r="W13" t="n">
-        <v>1004.410356730539</v>
+        <v>1358.345215533808</v>
       </c>
       <c r="X13" t="n">
-        <v>761.8464601763443</v>
+        <v>1358.345215533808</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.8464601763443</v>
+        <v>1132.00244722355</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2538.603920074439</v>
+        <v>2538.603920074438</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.703190087738</v>
+        <v>2111.703190087737</v>
       </c>
       <c r="D14" t="n">
         <v>1688.410569272738</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.433629420596</v>
+        <v>1262.433629420595</v>
       </c>
       <c r="F14" t="n">
-        <v>837.3094476099959</v>
+        <v>837.3094476099957</v>
       </c>
       <c r="G14" t="n">
-        <v>433.0112211461594</v>
+        <v>433.0112211461592</v>
       </c>
       <c r="H14" t="n">
-        <v>135.5610537594883</v>
+        <v>135.5610537594881</v>
       </c>
       <c r="I14" t="n">
         <v>102.238510338686</v>
       </c>
       <c r="J14" t="n">
-        <v>468.2388976794197</v>
+        <v>468.2388976794196</v>
       </c>
       <c r="K14" t="n">
         <v>1188.838320949273</v>
@@ -5287,43 +5287,43 @@
         <v>2124.779347278405</v>
       </c>
       <c r="M14" t="n">
-        <v>3136.093191970988</v>
+        <v>2124.779347278405</v>
       </c>
       <c r="N14" t="n">
-        <v>3817.412839485926</v>
+        <v>3085.595160845711</v>
       </c>
       <c r="O14" t="n">
-        <v>3817.412839485926</v>
+        <v>3937.483288701006</v>
       </c>
       <c r="P14" t="n">
-        <v>4531.447520848759</v>
+        <v>4651.517970063839</v>
       </c>
       <c r="Q14" t="n">
-        <v>4991.855067719221</v>
+        <v>5111.925516934301</v>
       </c>
       <c r="R14" t="n">
         <v>5111.925516934301</v>
       </c>
       <c r="S14" t="n">
-        <v>5008.488771943208</v>
+        <v>5008.488771943206</v>
       </c>
       <c r="T14" t="n">
-        <v>4787.741960344586</v>
+        <v>4787.741960344584</v>
       </c>
       <c r="U14" t="n">
-        <v>4529.390317816736</v>
+        <v>4529.390317816734</v>
       </c>
       <c r="V14" t="n">
-        <v>4171.900902942985</v>
+        <v>4171.900902942984</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.509553243332</v>
+        <v>3775.509553243331</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.789554411079</v>
+        <v>3363.789554411077</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.45228436597</v>
+        <v>2958.452284365968</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3870.856720789791</v>
+        <v>669.1291353471114</v>
       </c>
       <c r="C15" t="n">
-        <v>3753.350817307296</v>
+        <v>551.6232318646162</v>
       </c>
       <c r="D15" t="n">
-        <v>3649.510858822581</v>
+        <v>447.7832733799012</v>
       </c>
       <c r="E15" t="n">
-        <v>3544.808925095519</v>
+        <v>343.0813396528384</v>
       </c>
       <c r="F15" t="n">
-        <v>3451.163094778423</v>
+        <v>249.4355093357426</v>
       </c>
       <c r="G15" t="n">
-        <v>3357.131172153743</v>
+        <v>155.403586711063</v>
       </c>
       <c r="H15" t="n">
-        <v>3303.966095781366</v>
+        <v>102.238510338686</v>
       </c>
       <c r="I15" t="n">
-        <v>3303.966095781366</v>
+        <v>110.4224459405142</v>
       </c>
       <c r="J15" t="n">
-        <v>3577.686772418465</v>
+        <v>384.1431225776131</v>
       </c>
       <c r="K15" t="n">
-        <v>4171.629648429327</v>
+        <v>731.9645881996478</v>
       </c>
       <c r="L15" t="n">
-        <v>4171.629648429327</v>
+        <v>731.9645881996478</v>
       </c>
       <c r="M15" t="n">
-        <v>4171.629648429327</v>
+        <v>731.9645881996478</v>
       </c>
       <c r="N15" t="n">
-        <v>4171.629648429327</v>
+        <v>1826.849052666708</v>
       </c>
       <c r="O15" t="n">
-        <v>4645.046515868704</v>
+        <v>1826.849052666708</v>
       </c>
       <c r="P15" t="n">
-        <v>4645.046515868704</v>
+        <v>1826.849052666708</v>
       </c>
       <c r="Q15" t="n">
-        <v>5111.925516934301</v>
+        <v>1826.849052666708</v>
       </c>
       <c r="R15" t="n">
-        <v>5111.925516934301</v>
+        <v>1910.197931491622</v>
       </c>
       <c r="S15" t="n">
-        <v>5031.007108017174</v>
+        <v>1829.279522574495</v>
       </c>
       <c r="T15" t="n">
-        <v>4889.215239753192</v>
+        <v>1687.487654310512</v>
       </c>
       <c r="U15" t="n">
-        <v>4704.448481117415</v>
+        <v>1502.720895674735</v>
       </c>
       <c r="V15" t="n">
-        <v>4499.475342256682</v>
+        <v>1297.747756814002</v>
       </c>
       <c r="W15" t="n">
-        <v>4302.953965089899</v>
+        <v>1101.226379647219</v>
       </c>
       <c r="X15" t="n">
-        <v>4139.476618856562</v>
+        <v>937.7490334138818</v>
       </c>
       <c r="Y15" t="n">
-        <v>3999.783730209854</v>
+        <v>798.0561447671741</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>620.1901269815078</v>
+        <v>391.5527105672995</v>
       </c>
       <c r="C16" t="n">
-        <v>448.2175638604238</v>
+        <v>219.5801474462155</v>
       </c>
       <c r="D16" t="n">
-        <v>448.2175638604238</v>
+        <v>219.5801474462155</v>
       </c>
       <c r="E16" t="n">
-        <v>282.0093580132773</v>
+        <v>219.5801474462155</v>
       </c>
       <c r="F16" t="n">
-        <v>110.1475837878377</v>
+        <v>102.238510338686</v>
       </c>
       <c r="G16" t="n">
-        <v>110.1475837878377</v>
+        <v>102.238510338686</v>
       </c>
       <c r="H16" t="n">
         <v>102.238510338686</v>
@@ -5460,28 +5460,28 @@
         <v>2300.449568058977</v>
       </c>
       <c r="R16" t="n">
-        <v>2254.234580645698</v>
+        <v>2300.449568058977</v>
       </c>
       <c r="S16" t="n">
-        <v>2084.418758973452</v>
+        <v>2130.633746386731</v>
       </c>
       <c r="T16" t="n">
-        <v>1841.157677307882</v>
+        <v>1887.372664721161</v>
       </c>
       <c r="U16" t="n">
-        <v>1560.974227949997</v>
+        <v>1607.189215363276</v>
       </c>
       <c r="V16" t="n">
-        <v>1279.262760558026</v>
+        <v>1325.477747971305</v>
       </c>
       <c r="W16" t="n">
-        <v>1279.262760558026</v>
+        <v>1050.625344143818</v>
       </c>
       <c r="X16" t="n">
-        <v>1036.698864003831</v>
+        <v>808.0614475896231</v>
       </c>
       <c r="Y16" t="n">
-        <v>810.3560956935735</v>
+        <v>581.7186792793651</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2538.603920074439</v>
+        <v>2538.603920074438</v>
       </c>
       <c r="C17" t="n">
-        <v>2111.70319008774</v>
+        <v>2111.703190087738</v>
       </c>
       <c r="D17" t="n">
-        <v>1688.41056927274</v>
+        <v>1688.410569272738</v>
       </c>
       <c r="E17" t="n">
-        <v>1262.433629420597</v>
+        <v>1262.433629420596</v>
       </c>
       <c r="F17" t="n">
         <v>837.3094476099959</v>
       </c>
       <c r="G17" t="n">
-        <v>433.0112211461594</v>
+        <v>433.0112211461595</v>
       </c>
       <c r="H17" t="n">
-        <v>135.5610537594883</v>
+        <v>135.5610537594881</v>
       </c>
       <c r="I17" t="n">
         <v>102.238510338686</v>
       </c>
       <c r="J17" t="n">
-        <v>102.238510338686</v>
+        <v>468.2388976794196</v>
       </c>
       <c r="K17" t="n">
-        <v>822.8379336085391</v>
+        <v>1188.838320949273</v>
       </c>
       <c r="L17" t="n">
-        <v>1431.225895814837</v>
+        <v>2124.779347278405</v>
       </c>
       <c r="M17" t="n">
-        <v>2442.539740507421</v>
+        <v>2124.779347278405</v>
       </c>
       <c r="N17" t="n">
-        <v>3425.932258501093</v>
+        <v>3085.595160845711</v>
       </c>
       <c r="O17" t="n">
-        <v>4277.820386356388</v>
+        <v>3937.483288701006</v>
       </c>
       <c r="P17" t="n">
-        <v>4991.855067719221</v>
+        <v>4651.517970063839</v>
       </c>
       <c r="Q17" t="n">
-        <v>4991.855067719221</v>
+        <v>5111.925516934301</v>
       </c>
       <c r="R17" t="n">
         <v>5111.925516934301</v>
       </c>
       <c r="S17" t="n">
-        <v>5008.488771943208</v>
+        <v>5008.488771943207</v>
       </c>
       <c r="T17" t="n">
-        <v>4787.741960344586</v>
+        <v>4787.741960344585</v>
       </c>
       <c r="U17" t="n">
-        <v>4529.390317816736</v>
+        <v>4529.390317816734</v>
       </c>
       <c r="V17" t="n">
-        <v>4171.900902942985</v>
+        <v>4171.900902942984</v>
       </c>
       <c r="W17" t="n">
-        <v>3775.509553243332</v>
+        <v>3775.50955324333</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.789554411079</v>
+        <v>3363.789554411077</v>
       </c>
       <c r="Y17" t="n">
-        <v>2958.45228436597</v>
+        <v>2958.452284365968</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>102.238510338686</v>
       </c>
       <c r="J18" t="n">
-        <v>129.0891339426934</v>
+        <v>375.959186975785</v>
       </c>
       <c r="K18" t="n">
-        <v>723.0320099535551</v>
+        <v>375.959186975785</v>
       </c>
       <c r="L18" t="n">
-        <v>723.0320099535551</v>
+        <v>381.9064821559712</v>
       </c>
       <c r="M18" t="n">
-        <v>723.0320099535551</v>
+        <v>1443.318930426025</v>
       </c>
       <c r="N18" t="n">
-        <v>723.0320099535551</v>
+        <v>1443.318930426025</v>
       </c>
       <c r="O18" t="n">
-        <v>723.0320099535551</v>
+        <v>1443.318930426025</v>
       </c>
       <c r="P18" t="n">
         <v>1443.318930426025</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>535.5036918660863</v>
+        <v>446.0728476852096</v>
       </c>
       <c r="C19" t="n">
-        <v>431.7939353178145</v>
+        <v>274.1002845641256</v>
       </c>
       <c r="D19" t="n">
-        <v>268.4771624445852</v>
+        <v>274.1002845641256</v>
       </c>
       <c r="E19" t="n">
-        <v>268.4771624445852</v>
+        <v>274.1002845641256</v>
       </c>
       <c r="F19" t="n">
-        <v>268.4771624445852</v>
+        <v>102.238510338686</v>
       </c>
       <c r="G19" t="n">
         <v>102.238510338686</v>
@@ -5697,28 +5697,28 @@
         <v>2300.449568058977</v>
       </c>
       <c r="R19" t="n">
-        <v>2254.234580645698</v>
+        <v>2300.449568058977</v>
       </c>
       <c r="S19" t="n">
-        <v>2084.418758973452</v>
+        <v>2185.153883504641</v>
       </c>
       <c r="T19" t="n">
-        <v>1841.157677307882</v>
+        <v>1941.892801839071</v>
       </c>
       <c r="U19" t="n">
-        <v>1560.974227949997</v>
+        <v>1661.709352481186</v>
       </c>
       <c r="V19" t="n">
-        <v>1279.262760558026</v>
+        <v>1379.997885089215</v>
       </c>
       <c r="W19" t="n">
-        <v>1004.410356730539</v>
+        <v>1105.145481261728</v>
       </c>
       <c r="X19" t="n">
-        <v>761.8464601763443</v>
+        <v>862.5815847075332</v>
       </c>
       <c r="Y19" t="n">
-        <v>535.5036918660863</v>
+        <v>636.2388163972753</v>
       </c>
     </row>
     <row r="20">
@@ -5737,40 +5737,40 @@
         <v>1688.410569272738</v>
       </c>
       <c r="E20" t="n">
-        <v>1262.433629420596</v>
+        <v>1262.433629420595</v>
       </c>
       <c r="F20" t="n">
-        <v>837.3094476099959</v>
+        <v>837.3094476099957</v>
       </c>
       <c r="G20" t="n">
-        <v>433.0112211461594</v>
+        <v>433.0112211461592</v>
       </c>
       <c r="H20" t="n">
-        <v>135.5610537594883</v>
+        <v>135.5610537594881</v>
       </c>
       <c r="I20" t="n">
         <v>102.238510338686</v>
       </c>
       <c r="J20" t="n">
-        <v>102.238510338686</v>
+        <v>468.2388976794196</v>
       </c>
       <c r="K20" t="n">
-        <v>822.8379336085391</v>
+        <v>1188.838320949273</v>
       </c>
       <c r="L20" t="n">
-        <v>1758.778959937671</v>
+        <v>2102.20264285204</v>
       </c>
       <c r="M20" t="n">
-        <v>2770.092804630255</v>
+        <v>2102.20264285204</v>
       </c>
       <c r="N20" t="n">
-        <v>3753.485322623927</v>
+        <v>3085.595160845711</v>
       </c>
       <c r="O20" t="n">
-        <v>4397.890835571468</v>
+        <v>3937.483288701006</v>
       </c>
       <c r="P20" t="n">
-        <v>5111.925516934301</v>
+        <v>4651.517970063839</v>
       </c>
       <c r="Q20" t="n">
         <v>5111.925516934301</v>
@@ -5779,22 +5779,22 @@
         <v>5111.925516934301</v>
       </c>
       <c r="S20" t="n">
-        <v>5008.488771943208</v>
+        <v>5008.488771943207</v>
       </c>
       <c r="T20" t="n">
-        <v>4787.741960344586</v>
+        <v>4787.741960344585</v>
       </c>
       <c r="U20" t="n">
-        <v>4529.390317816734</v>
+        <v>4529.390317816735</v>
       </c>
       <c r="V20" t="n">
         <v>4171.900902942984</v>
       </c>
       <c r="W20" t="n">
-        <v>3775.509553243331</v>
+        <v>3775.509553243332</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.789554411078</v>
+        <v>3363.789554411079</v>
       </c>
       <c r="Y20" t="n">
         <v>2958.452284365968</v>
@@ -5828,28 +5828,28 @@
         <v>102.238510338686</v>
       </c>
       <c r="I21" t="n">
-        <v>102.238510338686</v>
+        <v>110.4224459405142</v>
       </c>
       <c r="J21" t="n">
-        <v>375.959186975785</v>
+        <v>384.1431225776131</v>
       </c>
       <c r="K21" t="n">
-        <v>375.959186975785</v>
+        <v>978.0859985884748</v>
       </c>
       <c r="L21" t="n">
-        <v>375.959186975785</v>
+        <v>1359.970051601111</v>
       </c>
       <c r="M21" t="n">
-        <v>375.959186975785</v>
+        <v>1359.970051601111</v>
       </c>
       <c r="N21" t="n">
-        <v>375.959186975785</v>
+        <v>1359.970051601111</v>
       </c>
       <c r="O21" t="n">
-        <v>1270.535485858281</v>
+        <v>1359.970051601111</v>
       </c>
       <c r="P21" t="n">
-        <v>1826.849052666708</v>
+        <v>1359.970051601111</v>
       </c>
       <c r="Q21" t="n">
         <v>1826.849052666708</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>941.8364785114846</v>
+        <v>391.5527105672995</v>
       </c>
       <c r="C22" t="n">
-        <v>769.8639153904006</v>
+        <v>219.5801474462155</v>
       </c>
       <c r="D22" t="n">
-        <v>606.5471425171713</v>
+        <v>219.5801474462155</v>
       </c>
       <c r="E22" t="n">
-        <v>440.3389366700249</v>
+        <v>219.5801474462155</v>
       </c>
       <c r="F22" t="n">
-        <v>268.4771624445852</v>
+        <v>102.238510338686</v>
       </c>
       <c r="G22" t="n">
         <v>102.238510338686</v>
@@ -5934,28 +5934,28 @@
         <v>2300.449568058977</v>
       </c>
       <c r="R22" t="n">
-        <v>2254.234580645698</v>
+        <v>2300.449568058977</v>
       </c>
       <c r="S22" t="n">
-        <v>2084.418758973452</v>
+        <v>2130.633746386731</v>
       </c>
       <c r="T22" t="n">
-        <v>1841.157677307882</v>
+        <v>1887.372664721161</v>
       </c>
       <c r="U22" t="n">
-        <v>1560.974227949997</v>
+        <v>1607.189215363276</v>
       </c>
       <c r="V22" t="n">
-        <v>1279.262760558026</v>
+        <v>1325.477747971305</v>
       </c>
       <c r="W22" t="n">
-        <v>1132.00244722355</v>
+        <v>1050.625344143818</v>
       </c>
       <c r="X22" t="n">
-        <v>1132.00244722355</v>
+        <v>808.0614475896231</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.00244722355</v>
+        <v>581.7186792793651</v>
       </c>
     </row>
     <row r="23">
@@ -5974,10 +5974,10 @@
         <v>1688.410569272738</v>
       </c>
       <c r="E23" t="n">
-        <v>1262.433629420596</v>
+        <v>1262.433629420595</v>
       </c>
       <c r="F23" t="n">
-        <v>837.3094476099959</v>
+        <v>837.3094476099957</v>
       </c>
       <c r="G23" t="n">
         <v>433.0112211461592</v>
@@ -5989,28 +5989,28 @@
         <v>102.238510338686</v>
       </c>
       <c r="J23" t="n">
-        <v>286.2364764157667</v>
+        <v>102.238510338686</v>
       </c>
       <c r="K23" t="n">
-        <v>1006.83589968562</v>
+        <v>102.238510338686</v>
       </c>
       <c r="L23" t="n">
-        <v>1942.776926014752</v>
+        <v>1038.179536667818</v>
       </c>
       <c r="M23" t="n">
-        <v>2954.090770707336</v>
+        <v>2049.493381360402</v>
       </c>
       <c r="N23" t="n">
-        <v>3937.483288701007</v>
+        <v>3032.885899354073</v>
       </c>
       <c r="O23" t="n">
-        <v>3937.483288701007</v>
+        <v>3884.774027209368</v>
       </c>
       <c r="P23" t="n">
-        <v>4651.51797006384</v>
+        <v>4598.808708572201</v>
       </c>
       <c r="Q23" t="n">
-        <v>5111.925516934301</v>
+        <v>5059.216255442662</v>
       </c>
       <c r="R23" t="n">
         <v>5111.925516934301</v>
@@ -6071,22 +6071,22 @@
         <v>102.238510338686</v>
       </c>
       <c r="K24" t="n">
-        <v>102.238510338686</v>
+        <v>696.1813863495477</v>
       </c>
       <c r="L24" t="n">
-        <v>102.238510338686</v>
+        <v>696.1813863495477</v>
       </c>
       <c r="M24" t="n">
-        <v>815.3134670245618</v>
+        <v>696.1813863495477</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.197931491622</v>
+        <v>696.1813863495477</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.197931491622</v>
+        <v>723.0320099535551</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.197931491622</v>
+        <v>1443.318930426025</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.197931491622</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>914.9972415907546</v>
+        <v>711.5292078656925</v>
       </c>
       <c r="C25" t="n">
-        <v>743.0246784696706</v>
+        <v>539.5566447446084</v>
       </c>
       <c r="D25" t="n">
-        <v>579.7079055964413</v>
+        <v>539.5566447446084</v>
       </c>
       <c r="E25" t="n">
-        <v>413.4996997492948</v>
+        <v>539.5566447446084</v>
       </c>
       <c r="F25" t="n">
-        <v>413.4996997492948</v>
+        <v>367.6948705191688</v>
       </c>
       <c r="G25" t="n">
-        <v>247.2610476433956</v>
+        <v>201.4562184132696</v>
       </c>
       <c r="H25" t="n">
         <v>201.4562184132696</v>
@@ -6171,28 +6171,28 @@
         <v>2300.449568058977</v>
       </c>
       <c r="R25" t="n">
-        <v>2300.449568058977</v>
+        <v>2254.234580645698</v>
       </c>
       <c r="S25" t="n">
-        <v>2130.633746386731</v>
+        <v>2084.418758973452</v>
       </c>
       <c r="T25" t="n">
-        <v>2130.633746386731</v>
+        <v>2084.418758973452</v>
       </c>
       <c r="U25" t="n">
-        <v>2130.633746386731</v>
+        <v>1804.235309615568</v>
       </c>
       <c r="V25" t="n">
-        <v>1848.92227899476</v>
+        <v>1522.523842223597</v>
       </c>
       <c r="W25" t="n">
-        <v>1574.069875167273</v>
+        <v>1247.67143839611</v>
       </c>
       <c r="X25" t="n">
-        <v>1331.505978613078</v>
+        <v>1005.107541841915</v>
       </c>
       <c r="Y25" t="n">
-        <v>1105.16321030282</v>
+        <v>901.695176577758</v>
       </c>
     </row>
     <row r="26">
@@ -6211,10 +6211,10 @@
         <v>1688.410569272738</v>
       </c>
       <c r="E26" t="n">
-        <v>1262.433629420596</v>
+        <v>1262.433629420595</v>
       </c>
       <c r="F26" t="n">
-        <v>837.3094476099959</v>
+        <v>837.3094476099957</v>
       </c>
       <c r="G26" t="n">
         <v>433.0112211461592</v>
@@ -6226,25 +6226,25 @@
         <v>102.238510338686</v>
       </c>
       <c r="J26" t="n">
-        <v>154.9477718303243</v>
+        <v>468.2388976794196</v>
       </c>
       <c r="K26" t="n">
-        <v>154.9477718303243</v>
+        <v>1188.838320949273</v>
       </c>
       <c r="L26" t="n">
-        <v>1090.888798159456</v>
+        <v>2124.779347278405</v>
       </c>
       <c r="M26" t="n">
-        <v>2102.20264285204</v>
+        <v>3136.093191970988</v>
       </c>
       <c r="N26" t="n">
-        <v>3085.595160845712</v>
+        <v>4119.48570996466</v>
       </c>
       <c r="O26" t="n">
-        <v>3937.483288701007</v>
+        <v>4971.373837819954</v>
       </c>
       <c r="P26" t="n">
-        <v>4651.51797006384</v>
+        <v>5111.925516934301</v>
       </c>
       <c r="Q26" t="n">
         <v>5111.925516934301</v>
@@ -6253,7 +6253,7 @@
         <v>5111.925516934301</v>
       </c>
       <c r="S26" t="n">
-        <v>5008.488771943208</v>
+        <v>5008.488771943207</v>
       </c>
       <c r="T26" t="n">
         <v>4787.741960344585</v>
@@ -6265,10 +6265,10 @@
         <v>4171.900902942984</v>
       </c>
       <c r="W26" t="n">
-        <v>3775.50955324333</v>
+        <v>3775.509553243331</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.789554411077</v>
+        <v>3363.789554411078</v>
       </c>
       <c r="Y26" t="n">
         <v>2958.452284365968</v>
@@ -6305,25 +6305,25 @@
         <v>102.238510338686</v>
       </c>
       <c r="J27" t="n">
-        <v>102.238510338686</v>
+        <v>375.959186975785</v>
       </c>
       <c r="K27" t="n">
-        <v>102.238510338686</v>
+        <v>969.9020629866467</v>
       </c>
       <c r="L27" t="n">
-        <v>102.238510338686</v>
+        <v>969.9020629866467</v>
       </c>
       <c r="M27" t="n">
-        <v>102.238510338686</v>
+        <v>969.9020629866467</v>
       </c>
       <c r="N27" t="n">
-        <v>1015.621632609127</v>
+        <v>969.9020629866467</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.197931491622</v>
+        <v>969.9020629866467</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.197931491622</v>
+        <v>1690.188983459116</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.197931491622</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>750.1805508938212</v>
+        <v>804.6296139051153</v>
       </c>
       <c r="C28" t="n">
-        <v>750.1805508938212</v>
+        <v>632.6570507840313</v>
       </c>
       <c r="D28" t="n">
-        <v>750.1805508938212</v>
+        <v>606.5471425171713</v>
       </c>
       <c r="E28" t="n">
-        <v>583.9723450466747</v>
+        <v>440.3389366700249</v>
       </c>
       <c r="F28" t="n">
-        <v>412.1105708212352</v>
+        <v>268.4771624445852</v>
       </c>
       <c r="G28" t="n">
-        <v>245.8719187153359</v>
+        <v>102.238510338686</v>
       </c>
       <c r="H28" t="n">
         <v>102.238510338686</v>
@@ -6408,28 +6408,28 @@
         <v>2300.449568058977</v>
       </c>
       <c r="R28" t="n">
-        <v>2254.234580645698</v>
+        <v>2300.449568058977</v>
       </c>
       <c r="S28" t="n">
-        <v>2084.418758973452</v>
+        <v>2300.449568058977</v>
       </c>
       <c r="T28" t="n">
-        <v>1841.157677307882</v>
+        <v>2300.449568058977</v>
       </c>
       <c r="U28" t="n">
-        <v>1560.974227949997</v>
+        <v>2020.266118701092</v>
       </c>
       <c r="V28" t="n">
-        <v>1279.262760558026</v>
+        <v>1738.554651309121</v>
       </c>
       <c r="W28" t="n">
-        <v>1004.410356730539</v>
+        <v>1463.702247481634</v>
       </c>
       <c r="X28" t="n">
-        <v>761.8464601763443</v>
+        <v>1221.138350927439</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.8464601763443</v>
+        <v>994.795582617181</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1262.433629420596</v>
       </c>
       <c r="F29" t="n">
-        <v>837.3094476099955</v>
+        <v>837.3094476099959</v>
       </c>
       <c r="G29" t="n">
         <v>433.0112211461592</v>
       </c>
       <c r="H29" t="n">
-        <v>135.5610537594881</v>
+        <v>135.5610537594882</v>
       </c>
       <c r="I29" t="n">
         <v>102.238510338686</v>
       </c>
       <c r="J29" t="n">
-        <v>468.2388976794197</v>
+        <v>468.2388976794196</v>
       </c>
       <c r="K29" t="n">
         <v>1188.838320949273</v>
@@ -6472,19 +6472,19 @@
         <v>2124.779347278405</v>
       </c>
       <c r="M29" t="n">
-        <v>3136.093191970988</v>
+        <v>2696.166874999793</v>
       </c>
       <c r="N29" t="n">
-        <v>4119.48570996466</v>
+        <v>3679.559392993464</v>
       </c>
       <c r="O29" t="n">
-        <v>4971.373837819954</v>
+        <v>4531.447520848759</v>
       </c>
       <c r="P29" t="n">
-        <v>5111.925516934301</v>
+        <v>4531.447520848759</v>
       </c>
       <c r="Q29" t="n">
-        <v>5111.925516934301</v>
+        <v>4991.855067719221</v>
       </c>
       <c r="R29" t="n">
         <v>5111.925516934301</v>
@@ -6539,28 +6539,28 @@
         <v>102.238510338686</v>
       </c>
       <c r="I30" t="n">
-        <v>102.238510338686</v>
+        <v>110.4224459405142</v>
       </c>
       <c r="J30" t="n">
-        <v>102.238510338686</v>
+        <v>110.4224459405142</v>
       </c>
       <c r="K30" t="n">
-        <v>102.238510338686</v>
+        <v>704.3653219513759</v>
       </c>
       <c r="L30" t="n">
-        <v>102.238510338686</v>
+        <v>704.3653219513759</v>
       </c>
       <c r="M30" t="n">
-        <v>1163.650958608739</v>
+        <v>704.3653219513759</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.197931491622</v>
+        <v>704.3653219513759</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.197931491622</v>
+        <v>723.0320099535551</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.197931491622</v>
+        <v>1443.318930426025</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.197931491622</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1184.687594962718</v>
+        <v>446.0728476852096</v>
       </c>
       <c r="C31" t="n">
-        <v>1012.715031841634</v>
+        <v>274.1002845641256</v>
       </c>
       <c r="D31" t="n">
-        <v>849.3982589684048</v>
+        <v>274.1002845641256</v>
       </c>
       <c r="E31" t="n">
-        <v>683.1900531212583</v>
+        <v>274.1002845641256</v>
       </c>
       <c r="F31" t="n">
-        <v>511.3282788958188</v>
+        <v>102.238510338686</v>
       </c>
       <c r="G31" t="n">
-        <v>345.0896267899195</v>
+        <v>102.238510338686</v>
       </c>
       <c r="H31" t="n">
-        <v>201.4562184132696</v>
+        <v>102.238510338686</v>
       </c>
       <c r="I31" t="n">
         <v>102.238510338686</v>
@@ -6645,28 +6645,28 @@
         <v>2300.449568058977</v>
       </c>
       <c r="R31" t="n">
-        <v>2254.234580645698</v>
+        <v>2300.449568058977</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.234580645698</v>
+        <v>2185.153883504641</v>
       </c>
       <c r="T31" t="n">
-        <v>2010.973498980127</v>
+        <v>1941.892801839071</v>
       </c>
       <c r="U31" t="n">
-        <v>1730.790049622243</v>
+        <v>1661.709352481186</v>
       </c>
       <c r="V31" t="n">
-        <v>1730.790049622243</v>
+        <v>1379.997885089215</v>
       </c>
       <c r="W31" t="n">
-        <v>1730.790049622243</v>
+        <v>1105.145481261728</v>
       </c>
       <c r="X31" t="n">
-        <v>1488.226153068048</v>
+        <v>862.5815847075332</v>
       </c>
       <c r="Y31" t="n">
-        <v>1374.853563674784</v>
+        <v>636.2388163972753</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>1262.433629420596</v>
       </c>
       <c r="F32" t="n">
-        <v>837.3094476099959</v>
+        <v>837.3094476099955</v>
       </c>
       <c r="G32" t="n">
         <v>433.0112211461592</v>
       </c>
       <c r="H32" t="n">
-        <v>135.5610537594881</v>
+        <v>135.5610537594882</v>
       </c>
       <c r="I32" t="n">
         <v>102.238510338686</v>
       </c>
       <c r="J32" t="n">
-        <v>250.2189256745229</v>
+        <v>102.238510338686</v>
       </c>
       <c r="K32" t="n">
-        <v>970.8183489443759</v>
+        <v>822.8379336085391</v>
       </c>
       <c r="L32" t="n">
-        <v>970.8183489443759</v>
+        <v>1758.778959937671</v>
       </c>
       <c r="M32" t="n">
         <v>1982.13219363696</v>
@@ -6779,25 +6779,25 @@
         <v>102.238510338686</v>
       </c>
       <c r="J33" t="n">
-        <v>102.238510338686</v>
+        <v>375.959186975785</v>
       </c>
       <c r="K33" t="n">
-        <v>102.238510338686</v>
+        <v>969.9020629866467</v>
       </c>
       <c r="L33" t="n">
-        <v>102.238510338686</v>
+        <v>969.9020629866467</v>
       </c>
       <c r="M33" t="n">
-        <v>815.3134670245618</v>
+        <v>969.9020629866467</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.197931491622</v>
+        <v>969.9020629866467</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.197931491622</v>
+        <v>969.9020629866467</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.197931491622</v>
+        <v>1443.318930426025</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.197931491622</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3156.813672029346</v>
+        <v>446.0728476852096</v>
       </c>
       <c r="C34" t="n">
-        <v>3156.813672029346</v>
+        <v>274.1002845641256</v>
       </c>
       <c r="D34" t="n">
-        <v>3079.922665061157</v>
+        <v>274.1002845641256</v>
       </c>
       <c r="E34" t="n">
-        <v>2913.714459214011</v>
+        <v>274.1002845641256</v>
       </c>
       <c r="F34" t="n">
-        <v>2913.714459214011</v>
+        <v>102.238510338686</v>
       </c>
       <c r="G34" t="n">
-        <v>2913.714459214011</v>
+        <v>102.238510338686</v>
       </c>
       <c r="H34" t="n">
-        <v>2913.714459214011</v>
+        <v>102.238510338686</v>
       </c>
       <c r="I34" t="n">
-        <v>2913.714459214011</v>
+        <v>102.238510338686</v>
       </c>
       <c r="J34" t="n">
-        <v>2972.475070168098</v>
+        <v>160.9991212927734</v>
       </c>
       <c r="K34" t="n">
-        <v>3201.088492807457</v>
+        <v>389.6125439321322</v>
       </c>
       <c r="L34" t="n">
-        <v>3558.4469474136</v>
+        <v>746.9709985382754</v>
       </c>
       <c r="M34" t="n">
-        <v>3952.446969220957</v>
+        <v>1140.971020345632</v>
       </c>
       <c r="N34" t="n">
-        <v>4332.685790910018</v>
+        <v>1521.209842034694</v>
       </c>
       <c r="O34" t="n">
-        <v>4690.651505790751</v>
+        <v>1879.175556915426</v>
       </c>
       <c r="P34" t="n">
-        <v>4983.422061089144</v>
+        <v>2171.94611221382</v>
       </c>
       <c r="Q34" t="n">
-        <v>5111.925516934301</v>
+        <v>2300.449568058977</v>
       </c>
       <c r="R34" t="n">
-        <v>5065.710529521022</v>
+        <v>2300.449568058977</v>
       </c>
       <c r="S34" t="n">
-        <v>4895.894707848777</v>
+        <v>2185.153883504641</v>
       </c>
       <c r="T34" t="n">
-        <v>4652.633626183207</v>
+        <v>1941.892801839071</v>
       </c>
       <c r="U34" t="n">
-        <v>4372.450176825322</v>
+        <v>1661.709352481186</v>
       </c>
       <c r="V34" t="n">
-        <v>4090.738709433351</v>
+        <v>1379.997885089215</v>
       </c>
       <c r="W34" t="n">
-        <v>3815.886305605864</v>
+        <v>1105.145481261728</v>
       </c>
       <c r="X34" t="n">
-        <v>3573.32240905167</v>
+        <v>862.5815847075332</v>
       </c>
       <c r="Y34" t="n">
-        <v>3346.979640741411</v>
+        <v>636.2388163972753</v>
       </c>
     </row>
     <row r="35">
@@ -6922,13 +6922,13 @@
         <v>1688.410569272738</v>
       </c>
       <c r="E35" t="n">
-        <v>1262.433629420596</v>
+        <v>1262.433629420595</v>
       </c>
       <c r="F35" t="n">
-        <v>837.3094476099959</v>
+        <v>837.3094476099957</v>
       </c>
       <c r="G35" t="n">
-        <v>433.0112211461591</v>
+        <v>433.0112211461592</v>
       </c>
       <c r="H35" t="n">
         <v>135.5610537594881</v>
@@ -6937,25 +6937,25 @@
         <v>102.238510338686</v>
       </c>
       <c r="J35" t="n">
-        <v>148.3830299233043</v>
+        <v>468.2388976794196</v>
       </c>
       <c r="K35" t="n">
-        <v>868.9824531931573</v>
+        <v>1188.838320949273</v>
       </c>
       <c r="L35" t="n">
-        <v>1804.923479522289</v>
+        <v>2124.779347278405</v>
       </c>
       <c r="M35" t="n">
-        <v>2816.237324214873</v>
+        <v>2124.779347278405</v>
       </c>
       <c r="N35" t="n">
-        <v>3799.629842208545</v>
+        <v>3085.595160845711</v>
       </c>
       <c r="O35" t="n">
-        <v>4651.51797006384</v>
+        <v>3937.483288701006</v>
       </c>
       <c r="P35" t="n">
-        <v>4651.51797006384</v>
+        <v>4651.517970063839</v>
       </c>
       <c r="Q35" t="n">
         <v>5111.925516934301</v>
@@ -6964,13 +6964,13 @@
         <v>5111.925516934301</v>
       </c>
       <c r="S35" t="n">
-        <v>5008.488771943208</v>
+        <v>5008.488771943207</v>
       </c>
       <c r="T35" t="n">
         <v>4787.741960344585</v>
       </c>
       <c r="U35" t="n">
-        <v>4529.390317816735</v>
+        <v>4529.390317816734</v>
       </c>
       <c r="V35" t="n">
         <v>4171.900902942984</v>
@@ -7013,31 +7013,31 @@
         <v>102.238510338686</v>
       </c>
       <c r="I36" t="n">
-        <v>102.238510338686</v>
+        <v>110.4224459405142</v>
       </c>
       <c r="J36" t="n">
-        <v>102.238510338686</v>
+        <v>384.1431225776131</v>
       </c>
       <c r="K36" t="n">
-        <v>102.238510338686</v>
+        <v>978.0859985884748</v>
       </c>
       <c r="L36" t="n">
-        <v>102.238510338686</v>
+        <v>978.0859985884748</v>
       </c>
       <c r="M36" t="n">
-        <v>815.3134670245618</v>
+        <v>978.0859985884748</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.197931491622</v>
+        <v>1359.970051601111</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.197931491622</v>
+        <v>1359.970051601111</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.197931491622</v>
+        <v>1359.970051601111</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.197931491622</v>
+        <v>1826.849052666708</v>
       </c>
       <c r="R36" t="n">
         <v>1910.197931491622</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1184.687594962718</v>
+        <v>345.3377231540207</v>
       </c>
       <c r="C37" t="n">
-        <v>1012.715031841634</v>
+        <v>173.3651600329367</v>
       </c>
       <c r="D37" t="n">
-        <v>849.3982589684048</v>
+        <v>173.3651600329367</v>
       </c>
       <c r="E37" t="n">
-        <v>683.1900531212583</v>
+        <v>102.238510338686</v>
       </c>
       <c r="F37" t="n">
-        <v>511.3282788958188</v>
+        <v>102.238510338686</v>
       </c>
       <c r="G37" t="n">
-        <v>345.0896267899195</v>
+        <v>102.238510338686</v>
       </c>
       <c r="H37" t="n">
-        <v>201.4562184132696</v>
+        <v>102.238510338686</v>
       </c>
       <c r="I37" t="n">
         <v>102.238510338686</v>
@@ -7119,28 +7119,28 @@
         <v>2300.449568058977</v>
       </c>
       <c r="R37" t="n">
-        <v>2288.428454038969</v>
+        <v>2254.234580645698</v>
       </c>
       <c r="S37" t="n">
-        <v>2118.612632366724</v>
+        <v>2084.418758973452</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.612632366724</v>
+        <v>1841.157677307882</v>
       </c>
       <c r="U37" t="n">
-        <v>2118.612632366724</v>
+        <v>1560.974227949997</v>
       </c>
       <c r="V37" t="n">
-        <v>2118.612632366724</v>
+        <v>1279.262760558026</v>
       </c>
       <c r="W37" t="n">
-        <v>1843.760228539237</v>
+        <v>1004.410356730539</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.196331985042</v>
+        <v>761.8464601763443</v>
       </c>
       <c r="Y37" t="n">
-        <v>1374.853563674784</v>
+        <v>535.5036918660863</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2538.60392007444</v>
+        <v>2538.603920074438</v>
       </c>
       <c r="C38" t="n">
         <v>2111.703190087738</v>
@@ -7174,7 +7174,7 @@
         <v>102.238510338686</v>
       </c>
       <c r="J38" t="n">
-        <v>468.2388976794197</v>
+        <v>468.2388976794196</v>
       </c>
       <c r="K38" t="n">
         <v>1188.838320949273</v>
@@ -7183,16 +7183,16 @@
         <v>2124.779347278405</v>
       </c>
       <c r="M38" t="n">
-        <v>3136.093191970988</v>
+        <v>2124.779347278405</v>
       </c>
       <c r="N38" t="n">
-        <v>3136.093191970988</v>
+        <v>3108.171865272076</v>
       </c>
       <c r="O38" t="n">
-        <v>3987.981319826283</v>
+        <v>3960.059993127371</v>
       </c>
       <c r="P38" t="n">
-        <v>4702.016001189117</v>
+        <v>4674.094674490204</v>
       </c>
       <c r="Q38" t="n">
         <v>5111.925516934301</v>
@@ -7201,25 +7201,25 @@
         <v>5111.925516934301</v>
       </c>
       <c r="S38" t="n">
-        <v>5008.488771943208</v>
+        <v>5008.488771943207</v>
       </c>
       <c r="T38" t="n">
-        <v>4787.741960344586</v>
+        <v>4787.741960344585</v>
       </c>
       <c r="U38" t="n">
-        <v>4529.390317816736</v>
+        <v>4529.390317816735</v>
       </c>
       <c r="V38" t="n">
-        <v>4171.900902942985</v>
+        <v>4171.900902942984</v>
       </c>
       <c r="W38" t="n">
         <v>3775.509553243332</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.78955441108</v>
+        <v>3363.789554411077</v>
       </c>
       <c r="Y38" t="n">
-        <v>2958.45228436597</v>
+        <v>2958.452284365968</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>102.238510338686</v>
       </c>
       <c r="K39" t="n">
-        <v>696.1813863495478</v>
+        <v>696.1813863495477</v>
       </c>
       <c r="L39" t="n">
-        <v>1537.629834195391</v>
+        <v>696.1813863495477</v>
       </c>
       <c r="M39" t="n">
-        <v>1537.629834195391</v>
+        <v>696.1813863495477</v>
       </c>
       <c r="N39" t="n">
-        <v>1537.629834195391</v>
+        <v>696.1813863495477</v>
       </c>
       <c r="O39" t="n">
-        <v>1537.629834195391</v>
+        <v>723.0320099535551</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.197931491622</v>
+        <v>1443.318930426025</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.197931491622</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1033.267030319324</v>
+        <v>666.4051143947866</v>
       </c>
       <c r="C40" t="n">
-        <v>861.2944671982395</v>
+        <v>666.4051143947866</v>
       </c>
       <c r="D40" t="n">
-        <v>697.9776943250102</v>
+        <v>666.4051143947866</v>
       </c>
       <c r="E40" t="n">
-        <v>683.1900531212583</v>
+        <v>583.9723450466747</v>
       </c>
       <c r="F40" t="n">
-        <v>511.3282788958188</v>
+        <v>412.1105708212352</v>
       </c>
       <c r="G40" t="n">
-        <v>345.0896267899195</v>
+        <v>245.8719187153359</v>
       </c>
       <c r="H40" t="n">
-        <v>201.4562184132696</v>
+        <v>102.238510338686</v>
       </c>
       <c r="I40" t="n">
         <v>102.238510338686</v>
@@ -7356,28 +7356,28 @@
         <v>2300.449568058977</v>
       </c>
       <c r="R40" t="n">
-        <v>2254.234580645698</v>
+        <v>2300.449568058977</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.234580645698</v>
+        <v>2130.633746386731</v>
       </c>
       <c r="T40" t="n">
-        <v>2254.234580645698</v>
+        <v>1887.372664721161</v>
       </c>
       <c r="U40" t="n">
-        <v>1974.051131287813</v>
+        <v>1607.189215363276</v>
       </c>
       <c r="V40" t="n">
-        <v>1692.339663895842</v>
+        <v>1325.477747971305</v>
       </c>
       <c r="W40" t="n">
-        <v>1692.339663895842</v>
+        <v>1325.477747971305</v>
       </c>
       <c r="X40" t="n">
-        <v>1449.775767341647</v>
+        <v>1082.91385141711</v>
       </c>
       <c r="Y40" t="n">
-        <v>1223.432999031389</v>
+        <v>856.5710831068523</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1262.433629420596</v>
       </c>
       <c r="F41" t="n">
-        <v>837.3094476099957</v>
+        <v>837.3094476099959</v>
       </c>
       <c r="G41" t="n">
-        <v>433.0112211461592</v>
+        <v>433.0112211461594</v>
       </c>
       <c r="H41" t="n">
         <v>135.5610537594881</v>
@@ -7411,46 +7411,46 @@
         <v>102.238510338686</v>
       </c>
       <c r="J41" t="n">
-        <v>468.2388976794197</v>
+        <v>102.238510338686</v>
       </c>
       <c r="K41" t="n">
-        <v>1188.838320949273</v>
+        <v>822.8379336085391</v>
       </c>
       <c r="L41" t="n">
-        <v>1804.923479522289</v>
+        <v>1758.778959937671</v>
       </c>
       <c r="M41" t="n">
-        <v>2816.237324214873</v>
+        <v>2770.092804630255</v>
       </c>
       <c r="N41" t="n">
-        <v>3799.629842208545</v>
+        <v>3753.485322623927</v>
       </c>
       <c r="O41" t="n">
-        <v>4651.51797006384</v>
+        <v>4605.373450479221</v>
       </c>
       <c r="P41" t="n">
-        <v>4651.51797006384</v>
+        <v>4605.373450479221</v>
       </c>
       <c r="Q41" t="n">
-        <v>5111.925516934301</v>
+        <v>5065.780997349682</v>
       </c>
       <c r="R41" t="n">
         <v>5111.925516934301</v>
       </c>
       <c r="S41" t="n">
-        <v>5008.488771943208</v>
+        <v>5008.488771943207</v>
       </c>
       <c r="T41" t="n">
         <v>4787.741960344585</v>
       </c>
       <c r="U41" t="n">
-        <v>4529.390317816735</v>
+        <v>4529.390317816734</v>
       </c>
       <c r="V41" t="n">
         <v>4171.900902942984</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.50955324333</v>
+        <v>3775.509553243331</v>
       </c>
       <c r="X41" t="n">
         <v>3363.789554411077</v>
@@ -7493,22 +7493,22 @@
         <v>375.959186975785</v>
       </c>
       <c r="K42" t="n">
-        <v>375.959186975785</v>
+        <v>969.9020629866467</v>
       </c>
       <c r="L42" t="n">
-        <v>1217.407634821628</v>
+        <v>969.9020629866467</v>
       </c>
       <c r="M42" t="n">
-        <v>1217.407634821628</v>
+        <v>969.9020629866467</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.197931491622</v>
+        <v>969.9020629866467</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.197931491622</v>
+        <v>969.9020629866467</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.197931491622</v>
+        <v>1690.188983459116</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.197931491622</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>702.8734176178377</v>
+        <v>446.0728476852096</v>
       </c>
       <c r="C43" t="n">
-        <v>702.8734176178377</v>
+        <v>274.1002845641256</v>
       </c>
       <c r="D43" t="n">
-        <v>539.5566447446084</v>
+        <v>274.1002845641256</v>
       </c>
       <c r="E43" t="n">
-        <v>539.5566447446084</v>
+        <v>274.1002845641256</v>
       </c>
       <c r="F43" t="n">
-        <v>367.6948705191688</v>
+        <v>102.238510338686</v>
       </c>
       <c r="G43" t="n">
-        <v>201.4562184132696</v>
+        <v>102.238510338686</v>
       </c>
       <c r="H43" t="n">
-        <v>201.4562184132696</v>
+        <v>102.238510338686</v>
       </c>
       <c r="I43" t="n">
         <v>102.238510338686</v>
@@ -7593,28 +7593,28 @@
         <v>2300.449568058977</v>
       </c>
       <c r="R43" t="n">
-        <v>2254.234580645698</v>
+        <v>2300.449568058977</v>
       </c>
       <c r="S43" t="n">
-        <v>2084.418758973452</v>
+        <v>2130.633746386731</v>
       </c>
       <c r="T43" t="n">
-        <v>1841.157677307882</v>
+        <v>1887.372664721161</v>
       </c>
       <c r="U43" t="n">
-        <v>1560.974227949997</v>
+        <v>1661.709352481186</v>
       </c>
       <c r="V43" t="n">
-        <v>1279.262760558026</v>
+        <v>1379.997885089215</v>
       </c>
       <c r="W43" t="n">
-        <v>1004.410356730539</v>
+        <v>1105.145481261728</v>
       </c>
       <c r="X43" t="n">
-        <v>761.8464601763443</v>
+        <v>862.5815847075332</v>
       </c>
       <c r="Y43" t="n">
-        <v>702.8734176178377</v>
+        <v>636.2388163972753</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.60392007444</v>
+        <v>2538.603920074439</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.70319008774</v>
+        <v>2111.703190087738</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.41056927274</v>
+        <v>1688.410569272738</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.433629420598</v>
+        <v>1262.433629420595</v>
       </c>
       <c r="F44" t="n">
-        <v>837.309447609998</v>
+        <v>837.3094476099957</v>
       </c>
       <c r="G44" t="n">
-        <v>433.0112211461615</v>
+        <v>433.0112211461592</v>
       </c>
       <c r="H44" t="n">
-        <v>135.5610537594904</v>
+        <v>135.5610537594881</v>
       </c>
       <c r="I44" t="n">
         <v>102.238510338686</v>
       </c>
       <c r="J44" t="n">
-        <v>468.2388976794197</v>
+        <v>102.238510338686</v>
       </c>
       <c r="K44" t="n">
-        <v>1188.838320949273</v>
+        <v>822.8379336085391</v>
       </c>
       <c r="L44" t="n">
-        <v>2124.779347278405</v>
+        <v>1758.778959937671</v>
       </c>
       <c r="M44" t="n">
-        <v>3136.093191970988</v>
+        <v>2562.610189722501</v>
       </c>
       <c r="N44" t="n">
-        <v>4119.48570996466</v>
+        <v>3546.002707716173</v>
       </c>
       <c r="O44" t="n">
-        <v>4119.48570996466</v>
+        <v>4397.890835571468</v>
       </c>
       <c r="P44" t="n">
-        <v>4531.447520848759</v>
+        <v>5111.925516934301</v>
       </c>
       <c r="Q44" t="n">
-        <v>4991.855067719221</v>
+        <v>5111.925516934301</v>
       </c>
       <c r="R44" t="n">
         <v>5111.925516934301</v>
       </c>
       <c r="S44" t="n">
-        <v>5008.488771943208</v>
+        <v>5008.488771943207</v>
       </c>
       <c r="T44" t="n">
-        <v>4787.741960344586</v>
+        <v>4787.741960344585</v>
       </c>
       <c r="U44" t="n">
-        <v>4529.390317816736</v>
+        <v>4529.390317816735</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.900902942985</v>
+        <v>4171.900902942984</v>
       </c>
       <c r="W44" t="n">
         <v>3775.509553243332</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.78955441108</v>
+        <v>3363.789554411079</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.45228436597</v>
+        <v>2958.452284365969</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>102.238510338686</v>
       </c>
       <c r="K45" t="n">
-        <v>102.238510338686</v>
+        <v>696.1813863495477</v>
       </c>
       <c r="L45" t="n">
-        <v>102.238510338686</v>
+        <v>696.1813863495477</v>
       </c>
       <c r="M45" t="n">
-        <v>211.9858333117432</v>
+        <v>696.1813863495477</v>
       </c>
       <c r="N45" t="n">
-        <v>211.9858333117432</v>
+        <v>696.1813863495477</v>
       </c>
       <c r="O45" t="n">
-        <v>1106.562132194239</v>
+        <v>723.0320099535551</v>
       </c>
       <c r="P45" t="n">
-        <v>1826.849052666708</v>
+        <v>1443.318930426025</v>
       </c>
       <c r="Q45" t="n">
-        <v>1826.849052666708</v>
+        <v>1910.197931491622</v>
       </c>
       <c r="R45" t="n">
         <v>1910.197931491622</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>919.2312347822353</v>
+        <v>775.5978264055854</v>
       </c>
       <c r="C46" t="n">
-        <v>747.2586716611513</v>
+        <v>603.6252632845013</v>
       </c>
       <c r="D46" t="n">
-        <v>583.941898787922</v>
+        <v>440.308490411272</v>
       </c>
       <c r="E46" t="n">
-        <v>417.7336929407755</v>
+        <v>274.1002845641256</v>
       </c>
       <c r="F46" t="n">
-        <v>245.8719187153359</v>
+        <v>102.238510338686</v>
       </c>
       <c r="G46" t="n">
-        <v>245.8719187153359</v>
+        <v>102.238510338686</v>
       </c>
       <c r="H46" t="n">
         <v>102.238510338686</v>
@@ -7833,25 +7833,25 @@
         <v>2300.449568058977</v>
       </c>
       <c r="S46" t="n">
-        <v>2300.449568058977</v>
+        <v>2130.633746386731</v>
       </c>
       <c r="T46" t="n">
-        <v>2300.449568058977</v>
+        <v>1887.372664721161</v>
       </c>
       <c r="U46" t="n">
-        <v>2134.867739578212</v>
+        <v>1607.189215363276</v>
       </c>
       <c r="V46" t="n">
-        <v>1853.156272186241</v>
+        <v>1325.477747971305</v>
       </c>
       <c r="W46" t="n">
-        <v>1578.303868358754</v>
+        <v>1192.106563427909</v>
       </c>
       <c r="X46" t="n">
-        <v>1335.739971804559</v>
+        <v>1192.106563427909</v>
       </c>
       <c r="Y46" t="n">
-        <v>1109.397203494301</v>
+        <v>965.7637951176509</v>
       </c>
     </row>
   </sheetData>
@@ -7990,13 +7990,13 @@
         <v>498.831168659766</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8057,28 +8057,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>375.4846162958658</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8148,13 +8148,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>26.57325859521377</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>227.322966839075</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8218,22 +8218,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>455.6196014764236</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>457.1346235160603</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8306,10 +8306,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>182.1367435982025</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P6" t="n">
         <v>483.1707469651629</v>
@@ -8318,7 +8318,7 @@
         <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8382,10 +8382,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>181.710741931019</v>
+        <v>547.9768619480851</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8546,10 +8546,10 @@
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>181.4456529820153</v>
+        <v>173.9237914043267</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8695,10 +8695,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>833.2392080667963</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>30.33253232011298</v>
+        <v>472.5859085262712</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>31.75894999219616</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>32.49314046734417</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.4276467096805</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>18.90635560856354</v>
       </c>
       <c r="L12" t="n">
-        <v>17.81848089308092</v>
+        <v>17.81848089308094</v>
       </c>
       <c r="M12" t="n">
-        <v>411.6241323511721</v>
+        <v>17.61606304363278</v>
       </c>
       <c r="N12" t="n">
-        <v>15.71725246183389</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>18.02540399391497</v>
+        <v>18.025403993915</v>
       </c>
       <c r="P12" t="n">
-        <v>17.64033268566556</v>
+        <v>17.64033268566558</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>371.3207164902072</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8935,13 +8935,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>30.33253232011302</v>
       </c>
       <c r="N14" t="n">
-        <v>718.2676915293625</v>
+        <v>1000.58705117822</v>
       </c>
       <c r="O14" t="n">
-        <v>30.5793657151325</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>32.49314046734417</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.4276467096805</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>370.2411693681946</v>
       </c>
       <c r="L15" t="n">
-        <v>17.81848089308092</v>
+        <v>17.81848089308094</v>
       </c>
       <c r="M15" t="n">
-        <v>17.61606304363276</v>
+        <v>17.61606304363278</v>
       </c>
       <c r="N15" t="n">
-        <v>15.71725246183389</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>496.2242599932854</v>
+        <v>18.025403993915</v>
       </c>
       <c r="P15" t="n">
-        <v>17.64033268566556</v>
+        <v>17.64033268566558</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>19.98590273057613</v>
       </c>
       <c r="R15" t="n">
-        <v>22.32992066665843</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>25.98871855241667</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>646.4655611158983</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>30.33253232011302</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>1000.58705117822</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>31.75894999219614</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>32.49314046734417</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>15.4276467096805</v>
+        <v>15.42764670968051</v>
       </c>
       <c r="J18" t="n">
-        <v>45.68933276414084</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>18.90635560856354</v>
       </c>
       <c r="L18" t="n">
-        <v>17.81848089308092</v>
+        <v>23.82584976195588</v>
       </c>
       <c r="M18" t="n">
-        <v>17.61606304363276</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>15.71725246183389</v>
+        <v>15.71725246183392</v>
       </c>
       <c r="O18" t="n">
-        <v>18.02540399391497</v>
+        <v>18.025403993915</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>17.64033268566558</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>22.32992066665843</v>
+        <v>22.32992066665844</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>25.98871855241667</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>954.5224901022308</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>30.33253232011302</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>681.4940252581041</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>31.75894999219614</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>32.49314046734415</v>
+        <v>32.49314046734417</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>15.4276467096805</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>18.90635560856353</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>17.81848089308092</v>
+        <v>403.5599485826122</v>
       </c>
       <c r="M21" t="n">
-        <v>17.61606304363276</v>
+        <v>17.61606304363278</v>
       </c>
       <c r="N21" t="n">
-        <v>15.71725246183389</v>
+        <v>15.71725246183392</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>18.025403993915</v>
       </c>
       <c r="P21" t="n">
-        <v>579.5732284517541</v>
+        <v>17.64033268566558</v>
       </c>
       <c r="Q21" t="n">
-        <v>19.98590273057611</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>211.8452499434072</v>
+        <v>25.98871855241669</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>30.62206009344169</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9652,7 +9652,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>30.5793657151325</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>32.49314046734415</v>
+        <v>85.73481874172623</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>15.4276467096805</v>
+        <v>15.42764670968051</v>
       </c>
       <c r="J24" t="n">
-        <v>18.567490739891</v>
+        <v>18.56749073989101</v>
       </c>
       <c r="K24" t="n">
-        <v>18.90635560856353</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>17.81848089308092</v>
+        <v>17.81848089308094</v>
       </c>
       <c r="M24" t="n">
-        <v>737.8937970697698</v>
+        <v>17.61606304363278</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>15.71725246183392</v>
       </c>
       <c r="O24" t="n">
-        <v>18.02540399391497</v>
+        <v>45.14724601816491</v>
       </c>
       <c r="P24" t="n">
-        <v>17.64033268566556</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>19.98590273057611</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>22.32992066665843</v>
+        <v>22.32992066665844</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>79.23039682679878</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>30.62206009344166</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>173.7332172743132</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>31.75894999219616</v>
       </c>
       <c r="R26" t="n">
-        <v>32.49314046734415</v>
+        <v>32.49314046734417</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.4276467096805</v>
+        <v>15.42764670968051</v>
       </c>
       <c r="J27" t="n">
-        <v>18.567490739891</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>18.90635560856353</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>17.81848089308092</v>
+        <v>17.81848089308094</v>
       </c>
       <c r="M27" t="n">
-        <v>17.61606304363276</v>
+        <v>17.61606304363278</v>
       </c>
       <c r="N27" t="n">
-        <v>938.3264668764203</v>
+        <v>15.71725246183392</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>18.025403993915</v>
       </c>
       <c r="P27" t="n">
-        <v>17.64033268566556</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>19.98590273057611</v>
+        <v>242.2171633694713</v>
       </c>
       <c r="R27" t="n">
-        <v>22.32992066665843</v>
+        <v>22.32992066665844</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>607.4916512306063</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>173.7332172743141</v>
+        <v>31.7618242295189</v>
       </c>
       <c r="Q29" t="n">
-        <v>31.75894999219614</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>32.49314046734415</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>15.4276467096805</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>18.567490739891</v>
+        <v>18.56749073989101</v>
       </c>
       <c r="K30" t="n">
-        <v>18.90635560856353</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>17.81848089308092</v>
+        <v>17.81848089308094</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>17.61606304363278</v>
       </c>
       <c r="N30" t="n">
-        <v>769.8051038586855</v>
+        <v>15.71725246183392</v>
       </c>
       <c r="O30" t="n">
-        <v>18.02540399391497</v>
+        <v>36.88064440015659</v>
       </c>
       <c r="P30" t="n">
-        <v>17.64033268566556</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>19.98590273057611</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>22.32992066665843</v>
+        <v>22.32992066665844</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>175.4638855583125</v>
+        <v>25.98871855241669</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>31.9322659580215</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>255.9418592890917</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>15.4276467096805</v>
+        <v>15.42764670968051</v>
       </c>
       <c r="J33" t="n">
-        <v>18.567490739891</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>18.90635560856353</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>17.81848089308092</v>
+        <v>17.81848089308094</v>
       </c>
       <c r="M33" t="n">
-        <v>737.8937970697698</v>
+        <v>17.61606304363278</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>15.71725246183392</v>
       </c>
       <c r="O33" t="n">
-        <v>18.02540399391497</v>
+        <v>18.025403993915</v>
       </c>
       <c r="P33" t="n">
-        <v>17.64033268566556</v>
+        <v>495.8391886850371</v>
       </c>
       <c r="Q33" t="n">
-        <v>19.98590273057611</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>22.32992066665843</v>
+        <v>22.32992066665844</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.59934439546545</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>30.33253232011302</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>1000.58705117822</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>31.76182422951887</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>32.49314046734415</v>
+        <v>32.49314046734417</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>15.4276467096805</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>18.567490739891</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>18.90635560856353</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>17.81848089308092</v>
+        <v>17.81848089308094</v>
       </c>
       <c r="M36" t="n">
-        <v>737.8937970697698</v>
+        <v>17.61606304363278</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>401.4587201513652</v>
       </c>
       <c r="O36" t="n">
-        <v>18.02540399391497</v>
+        <v>18.025403993915</v>
       </c>
       <c r="P36" t="n">
-        <v>17.64033268566556</v>
+        <v>17.64033268566558</v>
       </c>
       <c r="Q36" t="n">
-        <v>19.98590273057611</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>22.32992066665843</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>30.33253232011302</v>
       </c>
       <c r="N38" t="n">
-        <v>30.06602737285948</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>445.8089658964232</v>
+        <v>474.0123261983543</v>
       </c>
       <c r="R38" t="n">
-        <v>32.49314046734415</v>
+        <v>32.49314046734417</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>15.4276467096805</v>
+        <v>15.42764670968051</v>
       </c>
       <c r="J39" t="n">
-        <v>18.567490739891</v>
+        <v>18.56749073989101</v>
       </c>
       <c r="K39" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>17.81848089308094</v>
       </c>
       <c r="M39" t="n">
-        <v>17.61606304363276</v>
+        <v>17.61606304363278</v>
       </c>
       <c r="N39" t="n">
-        <v>15.71725246183389</v>
+        <v>15.71725246183392</v>
       </c>
       <c r="O39" t="n">
-        <v>18.02540399391497</v>
+        <v>45.14724601816491</v>
       </c>
       <c r="P39" t="n">
-        <v>393.9717440960001</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>19.98590273057611</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>22.32992066665843</v>
+        <v>22.32992066665844</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>25.98871855241669</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>654.2405069408667</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11077,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>31.76182422951887</v>
+        <v>31.7618242295189</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>32.49314046734415</v>
+        <v>79.10376631039279</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>15.4276467096805</v>
+        <v>15.42764670968051</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>18.90635560856353</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>17.81848089308094</v>
       </c>
       <c r="M42" t="n">
-        <v>17.61606304363276</v>
+        <v>17.61606304363278</v>
       </c>
       <c r="N42" t="n">
-        <v>715.5054309163733</v>
+        <v>15.71725246183392</v>
       </c>
       <c r="O42" t="n">
-        <v>18.02540399391497</v>
+        <v>18.025403993915</v>
       </c>
       <c r="P42" t="n">
-        <v>17.64033268566556</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>19.98590273057611</v>
+        <v>242.2171633694713</v>
       </c>
       <c r="R42" t="n">
-        <v>22.32992066665843</v>
+        <v>22.32992066665844</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>25.98871855241669</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>842.2832694765071</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>30.5793657151325</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>447.8848655265892</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>31.75894999219616</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>32.49314046734417</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.4276467096805</v>
+        <v>15.42764670968051</v>
       </c>
       <c r="J45" t="n">
-        <v>18.567490739891</v>
+        <v>18.56749073989101</v>
       </c>
       <c r="K45" t="n">
-        <v>18.90635560856353</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>17.81848089308092</v>
+        <v>17.81848089308094</v>
       </c>
       <c r="M45" t="n">
-        <v>128.4719448345996</v>
+        <v>17.61606304363278</v>
       </c>
       <c r="N45" t="n">
-        <v>15.71725246183389</v>
+        <v>15.71725246183392</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>45.14724601816491</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>19.98590273057611</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>22.32992066665844</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.1970742928834</v>
       </c>
       <c r="I13" t="n">
-        <v>86.78596181082793</v>
+        <v>98.22553099383775</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>45.75283753914613</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>32.5387928868781</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,16 +23661,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>53.97493574673102</v>
       </c>
       <c r="G16" t="n">
         <v>164.5762655848402</v>
       </c>
       <c r="H16" t="n">
-        <v>134.3670915782233</v>
+        <v>142.1970742928834</v>
       </c>
       <c r="I16" t="n">
         <v>98.22553099383775</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>45.75283753914613</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>67.58017850708407</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5762655848402</v>
       </c>
       <c r="H19" t="n">
         <v>142.1970742928834</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>45.75283753914613</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>53.97493574673091</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>53.97493574673102</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5762655848402</v>
       </c>
       <c r="H22" t="n">
         <v>142.1970742928834</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>45.75283753914613</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>126.3161695880809</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>96.85029335505877</v>
+        <v>142.1970742928834</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>45.75283753914612</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>240.8284708489147</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3816148643058</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>121.7010990156403</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>176.7150588352471</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>135.8347959603056</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.1970742928834</v>
       </c>
       <c r="I28" t="n">
         <v>98.22553099383775</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>45.75283753914613</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.1176634555229</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.8284708489147</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5762655848402</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.1970742928834</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.22553099383775</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>45.75283753914613</v>
       </c>
       <c r="S31" t="n">
-        <v>168.1176634555229</v>
+        <v>53.97493574673091</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>111.8404771278238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>85.56150824599011</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5762655848402</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>45.75283753914613</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>53.97493574673091</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>94.1307405913668</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5762655848402</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.1970742928834</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.22553099383775</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>33.85193465933855</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.8284708489147</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3816148643058</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>149.9063589969606</v>
+        <v>82.93768213404427</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.22553099383775</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>45.75283753914613</v>
       </c>
       <c r="S40" t="n">
-        <v>168.1176634555229</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.8284708489147</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5762655848402</v>
       </c>
       <c r="H43" t="n">
         <v>142.1970742928834</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.22553099383775</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>45.75283753914613</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>53.97493574673098</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.6960284942339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26040,7 +26040,7 @@
         <v>164.5762655848402</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.1970742928834</v>
       </c>
       <c r="I46" t="n">
         <v>98.22553099383775</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>45.75283753914612</v>
+        <v>45.75283753914613</v>
       </c>
       <c r="S46" t="n">
-        <v>168.1176634555229</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.8284708489147</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>113.4556046683488</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>140.06640709125</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>577456.7616197518</v>
+        <v>577456.7616197517</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>577456.7616197518</v>
+        <v>577456.7616197517</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>577456.7616197518</v>
+        <v>577456.7616197517</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>577456.7616197518</v>
+        <v>577456.7616197517</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>577456.7616197519</v>
+        <v>577456.7616197517</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>577456.7616197519</v>
+        <v>577456.7616197517</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>577456.7616197518</v>
+        <v>577456.7616197517</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>577456.7616197518</v>
+        <v>577456.7616197519</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>538759.4679103257</v>
       </c>
       <c r="C2" t="n">
-        <v>538759.4679103259</v>
+        <v>538759.4679103257</v>
       </c>
       <c r="D2" t="n">
         <v>538759.4679103257</v>
       </c>
       <c r="E2" t="n">
+        <v>520312.2364277142</v>
+      </c>
+      <c r="F2" t="n">
+        <v>520312.2364277137</v>
+      </c>
+      <c r="G2" t="n">
+        <v>520312.2364277141</v>
+      </c>
+      <c r="H2" t="n">
         <v>520312.2364277139</v>
       </c>
-      <c r="F2" t="n">
-        <v>520312.2364277142</v>
-      </c>
-      <c r="G2" t="n">
-        <v>520312.2364277139</v>
-      </c>
-      <c r="H2" t="n">
-        <v>520312.2364277142</v>
-      </c>
       <c r="I2" t="n">
-        <v>520312.2364277142</v>
+        <v>520312.236427714</v>
       </c>
       <c r="J2" t="n">
         <v>520312.2364277143</v>
       </c>
       <c r="K2" t="n">
-        <v>520312.2364277143</v>
+        <v>520312.2364277141</v>
       </c>
       <c r="L2" t="n">
-        <v>520312.2364277142</v>
+        <v>520312.2364277141</v>
       </c>
       <c r="M2" t="n">
         <v>520312.2364277141</v>
       </c>
       <c r="N2" t="n">
+        <v>520312.2364277142</v>
+      </c>
+      <c r="O2" t="n">
         <v>520312.2364277145</v>
       </c>
-      <c r="O2" t="n">
-        <v>520312.2364277141</v>
-      </c>
       <c r="P2" t="n">
-        <v>520312.2364277138</v>
+        <v>520312.2364277139</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>24000.08990045008</v>
       </c>
       <c r="M3" t="n">
-        <v>179863.8756908654</v>
+        <v>179863.8756908653</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>114194.7779561715</v>
       </c>
       <c r="F4" t="n">
-        <v>114194.7779561714</v>
+        <v>114194.7779561715</v>
       </c>
       <c r="G4" t="n">
-        <v>114194.7779561714</v>
+        <v>114194.7779561715</v>
       </c>
       <c r="H4" t="n">
-        <v>114194.7779561714</v>
+        <v>114194.7779561715</v>
       </c>
       <c r="I4" t="n">
         <v>114194.7779561715</v>
@@ -26459,7 +26459,7 @@
         <v>114194.7779561715</v>
       </c>
       <c r="P4" t="n">
-        <v>114194.7779561714</v>
+        <v>114194.7779561715</v>
       </c>
     </row>
     <row r="5">
@@ -26493,7 +26493,7 @@
         <v>77920.49655614918</v>
       </c>
       <c r="J5" t="n">
-        <v>77920.4965561492</v>
+        <v>77920.49655614918</v>
       </c>
       <c r="K5" t="n">
         <v>77920.4965561492</v>
@@ -26502,16 +26502,16 @@
         <v>77920.4965561492</v>
       </c>
       <c r="M5" t="n">
-        <v>77920.4965561492</v>
+        <v>77920.49655614918</v>
       </c>
       <c r="N5" t="n">
-        <v>77920.4965561492</v>
+        <v>77920.49655614918</v>
       </c>
       <c r="O5" t="n">
-        <v>77920.4965561492</v>
+        <v>77920.49655614918</v>
       </c>
       <c r="P5" t="n">
-        <v>77920.4965561492</v>
+        <v>77920.49655614918</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100041.415036229</v>
+        <v>100041.4150362289</v>
       </c>
       <c r="C6" t="n">
-        <v>254667.1356543496</v>
+        <v>254667.1356543494</v>
       </c>
       <c r="D6" t="n">
-        <v>233367.7687850705</v>
+        <v>233367.7687850704</v>
       </c>
       <c r="E6" t="n">
-        <v>104617.913987712</v>
+        <v>104568.0566053269</v>
       </c>
       <c r="F6" t="n">
-        <v>328196.9619153936</v>
+        <v>328147.1045330076</v>
       </c>
       <c r="G6" t="n">
-        <v>328196.9619153934</v>
+        <v>328147.104533008</v>
       </c>
       <c r="H6" t="n">
-        <v>328196.9619153937</v>
+        <v>328147.1045330078</v>
       </c>
       <c r="I6" t="n">
-        <v>328196.9619153935</v>
+        <v>328147.104533008</v>
       </c>
       <c r="J6" t="n">
-        <v>207474.4449726367</v>
+        <v>207424.5875902514</v>
       </c>
       <c r="K6" t="n">
-        <v>328196.9619153936</v>
+        <v>328147.104533008</v>
       </c>
       <c r="L6" t="n">
-        <v>304196.8720149434</v>
+        <v>304147.0146325579</v>
       </c>
       <c r="M6" t="n">
-        <v>148333.086224528</v>
+        <v>148283.2288421427</v>
       </c>
       <c r="N6" t="n">
-        <v>328196.9619153938</v>
+        <v>328147.1045330081</v>
       </c>
       <c r="O6" t="n">
-        <v>328196.9619153934</v>
+        <v>328147.1045330084</v>
       </c>
       <c r="P6" t="n">
-        <v>328196.9619153932</v>
+        <v>328147.1045330078</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10.05636232788114</v>
+        <v>10.05636232788109</v>
       </c>
       <c r="F3" t="n">
-        <v>10.05636232788114</v>
+        <v>10.05636232788109</v>
       </c>
       <c r="G3" t="n">
-        <v>10.05636232788114</v>
+        <v>10.05636232788109</v>
       </c>
       <c r="H3" t="n">
-        <v>10.05636232788114</v>
+        <v>10.05636232788109</v>
       </c>
       <c r="I3" t="n">
-        <v>10.05636232788114</v>
+        <v>10.05636232788109</v>
       </c>
       <c r="J3" t="n">
-        <v>10.05636232788114</v>
+        <v>10.05636232788109</v>
       </c>
       <c r="K3" t="n">
-        <v>10.05636232788114</v>
+        <v>10.05636232788109</v>
       </c>
       <c r="L3" t="n">
-        <v>10.05636232788114</v>
+        <v>10.05636232788109</v>
       </c>
       <c r="M3" t="n">
-        <v>10.05636232788114</v>
+        <v>10.05636232788109</v>
       </c>
       <c r="N3" t="n">
-        <v>10.05636232788114</v>
+        <v>10.05636232788109</v>
       </c>
       <c r="O3" t="n">
-        <v>10.05636232788114</v>
+        <v>10.05636232788109</v>
       </c>
       <c r="P3" t="n">
-        <v>10.05636232788114</v>
+        <v>10.05636232788109</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10.05636232788114</v>
+        <v>10.05636232788109</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>94.82790735525992</v>
       </c>
       <c r="E4" t="n">
-        <v>721.7535661179812</v>
+        <v>721.753566117981</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>94.82790735525987</v>
       </c>
       <c r="M4" t="n">
-        <v>721.7535661179812</v>
+        <v>721.7535661179808</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>94.82790735525992</v>
       </c>
       <c r="M4" t="n">
-        <v>721.7535661179812</v>
+        <v>721.753566117981</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>231.5225243088978</v>
       </c>
       <c r="F2" t="n">
-        <v>56.38454581829637</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>64.07797867198366</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>174.7090922610221</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>318.5130220887418</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>159.744673757117</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27675,16 +27675,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -27791,10 +27791,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>11.14556976235295</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>86.59871174811462</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,19 +27861,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>160.190760259014</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>290.4897201912251</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>34.72863961007525</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>106.2105945228215</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
     </row>
     <row r="21">
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04042758724776335</v>
+        <v>0.04042758724776314</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4140290279011565</v>
+        <v>0.4140290279011543</v>
       </c>
       <c r="I11" t="n">
-        <v>1.558584557369398</v>
+        <v>1.55858455736939</v>
       </c>
       <c r="J11" t="n">
-        <v>3.431240933169858</v>
+        <v>3.431240933169839</v>
       </c>
       <c r="K11" t="n">
-        <v>5.142540701367682</v>
+        <v>5.142540701367654</v>
       </c>
       <c r="L11" t="n">
-        <v>6.37977647460142</v>
+        <v>6.379776474601386</v>
       </c>
       <c r="M11" t="n">
-        <v>7.098730579318832</v>
+        <v>7.098730579318794</v>
       </c>
       <c r="N11" t="n">
-        <v>7.213595461586539</v>
+        <v>7.213595461586501</v>
       </c>
       <c r="O11" t="n">
-        <v>6.811593640891592</v>
+        <v>6.811593640891556</v>
       </c>
       <c r="P11" t="n">
-        <v>5.813537580712434</v>
+        <v>5.813537580712403</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.365724612401907</v>
+        <v>4.365724612401884</v>
       </c>
       <c r="R11" t="n">
-        <v>2.539509427452317</v>
+        <v>2.539509427452303</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9212436444084082</v>
+        <v>0.9212436444084033</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1769717631770842</v>
+        <v>0.1769717631770832</v>
       </c>
       <c r="U11" t="n">
-        <v>0.003234206979821067</v>
+        <v>0.00323420697982105</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02163066613921604</v>
+        <v>0.02163066613921593</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2089066966603234</v>
+        <v>0.2089066966603222</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7447400403194997</v>
+        <v>0.7447400403194957</v>
       </c>
       <c r="J12" t="n">
-        <v>2.043623593442337</v>
+        <v>2.043623593442326</v>
       </c>
       <c r="K12" t="n">
-        <v>3.492878224769811</v>
+        <v>3.492878224769793</v>
       </c>
       <c r="L12" t="n">
-        <v>4.696605821148641</v>
+        <v>4.696605821148616</v>
       </c>
       <c r="M12" t="n">
-        <v>5.480717468695221</v>
+        <v>5.480717468695192</v>
       </c>
       <c r="N12" t="n">
-        <v>5.625775751707772</v>
+        <v>5.625775751707742</v>
       </c>
       <c r="O12" t="n">
-        <v>5.146485728307248</v>
+        <v>5.14648572830722</v>
       </c>
       <c r="P12" t="n">
-        <v>4.130508519163105</v>
+        <v>4.130508519163083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.761135558402385</v>
+        <v>2.76113555840237</v>
       </c>
       <c r="R12" t="n">
-        <v>1.342998727485712</v>
+        <v>1.342998727485705</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4017801364016661</v>
+        <v>0.4017801364016639</v>
       </c>
       <c r="T12" t="n">
-        <v>0.08718676395587514</v>
+        <v>0.08718676395587469</v>
       </c>
       <c r="U12" t="n">
-        <v>0.001423070140737898</v>
+        <v>0.00142307014073789</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0181344238699496</v>
+        <v>0.0181344238699495</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1612315140437338</v>
+        <v>0.161231514043733</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5453515832890299</v>
+        <v>0.545351583289027</v>
       </c>
       <c r="J13" t="n">
-        <v>1.282103767605436</v>
+        <v>1.28210376760543</v>
       </c>
       <c r="K13" t="n">
-        <v>2.106890336890507</v>
+        <v>2.106890336890496</v>
       </c>
       <c r="L13" t="n">
-        <v>2.696094254265052</v>
+        <v>2.696094254265038</v>
       </c>
       <c r="M13" t="n">
-        <v>2.842653370814008</v>
+        <v>2.842653370813993</v>
       </c>
       <c r="N13" t="n">
-        <v>2.775061427298743</v>
+        <v>2.775061427298729</v>
       </c>
       <c r="O13" t="n">
-        <v>2.563218384817968</v>
+        <v>2.563218384817954</v>
       </c>
       <c r="P13" t="n">
-        <v>2.193276137870994</v>
+        <v>2.193276137870982</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.518510711510052</v>
+        <v>1.518510711510044</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8153896405524608</v>
+        <v>0.8153896405524564</v>
       </c>
       <c r="S13" t="n">
-        <v>0.316033550533576</v>
+        <v>0.3160335505335743</v>
       </c>
       <c r="T13" t="n">
-        <v>0.07748344744433007</v>
+        <v>0.07748344744432967</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0009891503929063427</v>
+        <v>0.0009891503929063375</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04042758724776335</v>
+        <v>0.04042758724776314</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4140290279011565</v>
+        <v>0.4140290279011543</v>
       </c>
       <c r="I14" t="n">
-        <v>1.558584557369398</v>
+        <v>1.55858455736939</v>
       </c>
       <c r="J14" t="n">
-        <v>3.431240933169858</v>
+        <v>3.431240933169839</v>
       </c>
       <c r="K14" t="n">
-        <v>5.142540701367682</v>
+        <v>5.142540701367654</v>
       </c>
       <c r="L14" t="n">
-        <v>6.37977647460142</v>
+        <v>6.379776474601386</v>
       </c>
       <c r="M14" t="n">
-        <v>7.098730579318832</v>
+        <v>7.098730579318794</v>
       </c>
       <c r="N14" t="n">
-        <v>7.213595461586539</v>
+        <v>7.213595461586501</v>
       </c>
       <c r="O14" t="n">
-        <v>6.811593640891592</v>
+        <v>6.811593640891556</v>
       </c>
       <c r="P14" t="n">
-        <v>5.813537580712434</v>
+        <v>5.813537580712403</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.365724612401907</v>
+        <v>4.365724612401884</v>
       </c>
       <c r="R14" t="n">
-        <v>2.539509427452317</v>
+        <v>2.539509427452303</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9212436444084082</v>
+        <v>0.9212436444084033</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1769717631770842</v>
+        <v>0.1769717631770832</v>
       </c>
       <c r="U14" t="n">
-        <v>0.003234206979821067</v>
+        <v>0.00323420697982105</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02163066613921604</v>
+        <v>0.02163066613921593</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2089066966603234</v>
+        <v>0.2089066966603222</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7447400403194997</v>
+        <v>0.7447400403194957</v>
       </c>
       <c r="J15" t="n">
-        <v>2.043623593442337</v>
+        <v>2.043623593442326</v>
       </c>
       <c r="K15" t="n">
-        <v>3.492878224769811</v>
+        <v>3.492878224769793</v>
       </c>
       <c r="L15" t="n">
-        <v>4.696605821148641</v>
+        <v>4.696605821148616</v>
       </c>
       <c r="M15" t="n">
-        <v>5.480717468695221</v>
+        <v>5.480717468695192</v>
       </c>
       <c r="N15" t="n">
-        <v>5.625775751707772</v>
+        <v>5.625775751707742</v>
       </c>
       <c r="O15" t="n">
-        <v>5.146485728307248</v>
+        <v>5.14648572830722</v>
       </c>
       <c r="P15" t="n">
-        <v>4.130508519163105</v>
+        <v>4.130508519163083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.761135558402385</v>
+        <v>2.76113555840237</v>
       </c>
       <c r="R15" t="n">
-        <v>1.342998727485712</v>
+        <v>1.342998727485705</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4017801364016661</v>
+        <v>0.4017801364016639</v>
       </c>
       <c r="T15" t="n">
-        <v>0.08718676395587514</v>
+        <v>0.08718676395587469</v>
       </c>
       <c r="U15" t="n">
-        <v>0.001423070140737898</v>
+        <v>0.00142307014073789</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0181344238699496</v>
+        <v>0.0181344238699495</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1612315140437338</v>
+        <v>0.161231514043733</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5453515832890299</v>
+        <v>0.545351583289027</v>
       </c>
       <c r="J16" t="n">
-        <v>1.282103767605436</v>
+        <v>1.28210376760543</v>
       </c>
       <c r="K16" t="n">
-        <v>2.106890336890507</v>
+        <v>2.106890336890496</v>
       </c>
       <c r="L16" t="n">
-        <v>2.696094254265052</v>
+        <v>2.696094254265038</v>
       </c>
       <c r="M16" t="n">
-        <v>2.842653370814008</v>
+        <v>2.842653370813993</v>
       </c>
       <c r="N16" t="n">
-        <v>2.775061427298743</v>
+        <v>2.775061427298729</v>
       </c>
       <c r="O16" t="n">
-        <v>2.563218384817968</v>
+        <v>2.563218384817954</v>
       </c>
       <c r="P16" t="n">
-        <v>2.193276137870994</v>
+        <v>2.193276137870982</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.518510711510052</v>
+        <v>1.518510711510044</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8153896405524608</v>
+        <v>0.8153896405524564</v>
       </c>
       <c r="S16" t="n">
-        <v>0.316033550533576</v>
+        <v>0.3160335505335743</v>
       </c>
       <c r="T16" t="n">
-        <v>0.07748344744433007</v>
+        <v>0.07748344744432967</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0009891503929063427</v>
+        <v>0.0009891503929063375</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04042758724776335</v>
+        <v>0.04042758724776314</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4140290279011565</v>
+        <v>0.4140290279011543</v>
       </c>
       <c r="I17" t="n">
-        <v>1.558584557369398</v>
+        <v>1.55858455736939</v>
       </c>
       <c r="J17" t="n">
-        <v>3.431240933169858</v>
+        <v>3.431240933169839</v>
       </c>
       <c r="K17" t="n">
-        <v>5.142540701367682</v>
+        <v>5.142540701367654</v>
       </c>
       <c r="L17" t="n">
-        <v>6.37977647460142</v>
+        <v>6.379776474601386</v>
       </c>
       <c r="M17" t="n">
-        <v>7.098730579318832</v>
+        <v>7.098730579318794</v>
       </c>
       <c r="N17" t="n">
-        <v>7.213595461586539</v>
+        <v>7.213595461586501</v>
       </c>
       <c r="O17" t="n">
-        <v>6.811593640891592</v>
+        <v>6.811593640891556</v>
       </c>
       <c r="P17" t="n">
-        <v>5.813537580712434</v>
+        <v>5.813537580712403</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.365724612401907</v>
+        <v>4.365724612401884</v>
       </c>
       <c r="R17" t="n">
-        <v>2.539509427452317</v>
+        <v>2.539509427452303</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9212436444084082</v>
+        <v>0.9212436444084033</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1769717631770842</v>
+        <v>0.1769717631770832</v>
       </c>
       <c r="U17" t="n">
-        <v>0.003234206979821067</v>
+        <v>0.00323420697982105</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02163066613921604</v>
+        <v>0.02163066613921593</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2089066966603234</v>
+        <v>0.2089066966603222</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7447400403194997</v>
+        <v>0.7447400403194957</v>
       </c>
       <c r="J18" t="n">
-        <v>2.043623593442337</v>
+        <v>2.043623593442326</v>
       </c>
       <c r="K18" t="n">
-        <v>3.492878224769811</v>
+        <v>3.492878224769793</v>
       </c>
       <c r="L18" t="n">
-        <v>4.696605821148641</v>
+        <v>4.696605821148616</v>
       </c>
       <c r="M18" t="n">
-        <v>5.480717468695221</v>
+        <v>5.480717468695192</v>
       </c>
       <c r="N18" t="n">
-        <v>5.625775751707772</v>
+        <v>5.625775751707742</v>
       </c>
       <c r="O18" t="n">
-        <v>5.146485728307248</v>
+        <v>5.14648572830722</v>
       </c>
       <c r="P18" t="n">
-        <v>4.130508519163105</v>
+        <v>4.130508519163083</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.761135558402385</v>
+        <v>2.76113555840237</v>
       </c>
       <c r="R18" t="n">
-        <v>1.342998727485712</v>
+        <v>1.342998727485705</v>
       </c>
       <c r="S18" t="n">
-        <v>0.4017801364016661</v>
+        <v>0.4017801364016639</v>
       </c>
       <c r="T18" t="n">
-        <v>0.08718676395587514</v>
+        <v>0.08718676395587469</v>
       </c>
       <c r="U18" t="n">
-        <v>0.001423070140737898</v>
+        <v>0.00142307014073789</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0181344238699496</v>
+        <v>0.0181344238699495</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1612315140437338</v>
+        <v>0.161231514043733</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5453515832890299</v>
+        <v>0.545351583289027</v>
       </c>
       <c r="J19" t="n">
-        <v>1.282103767605436</v>
+        <v>1.28210376760543</v>
       </c>
       <c r="K19" t="n">
-        <v>2.106890336890507</v>
+        <v>2.106890336890496</v>
       </c>
       <c r="L19" t="n">
-        <v>2.696094254265052</v>
+        <v>2.696094254265038</v>
       </c>
       <c r="M19" t="n">
-        <v>2.842653370814008</v>
+        <v>2.842653370813993</v>
       </c>
       <c r="N19" t="n">
-        <v>2.775061427298743</v>
+        <v>2.775061427298729</v>
       </c>
       <c r="O19" t="n">
-        <v>2.563218384817968</v>
+        <v>2.563218384817954</v>
       </c>
       <c r="P19" t="n">
-        <v>2.193276137870994</v>
+        <v>2.193276137870982</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.518510711510052</v>
+        <v>1.518510711510044</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8153896405524608</v>
+        <v>0.8153896405524564</v>
       </c>
       <c r="S19" t="n">
-        <v>0.316033550533576</v>
+        <v>0.3160335505335743</v>
       </c>
       <c r="T19" t="n">
-        <v>0.07748344744433007</v>
+        <v>0.07748344744432967</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0009891503929063427</v>
+        <v>0.0009891503929063375</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04042758724776335</v>
+        <v>0.04042758724776314</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4140290279011565</v>
+        <v>0.4140290279011543</v>
       </c>
       <c r="I20" t="n">
-        <v>1.558584557369398</v>
+        <v>1.55858455736939</v>
       </c>
       <c r="J20" t="n">
-        <v>3.431240933169858</v>
+        <v>3.431240933169839</v>
       </c>
       <c r="K20" t="n">
-        <v>5.142540701367682</v>
+        <v>5.142540701367654</v>
       </c>
       <c r="L20" t="n">
-        <v>6.37977647460142</v>
+        <v>6.379776474601386</v>
       </c>
       <c r="M20" t="n">
-        <v>7.098730579318832</v>
+        <v>7.098730579318794</v>
       </c>
       <c r="N20" t="n">
-        <v>7.213595461586539</v>
+        <v>7.213595461586501</v>
       </c>
       <c r="O20" t="n">
-        <v>6.811593640891592</v>
+        <v>6.811593640891556</v>
       </c>
       <c r="P20" t="n">
-        <v>5.813537580712434</v>
+        <v>5.813537580712403</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.365724612401907</v>
+        <v>4.365724612401884</v>
       </c>
       <c r="R20" t="n">
-        <v>2.539509427452317</v>
+        <v>2.539509427452303</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9212436444084082</v>
+        <v>0.9212436444084033</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1769717631770842</v>
+        <v>0.1769717631770832</v>
       </c>
       <c r="U20" t="n">
-        <v>0.003234206979821067</v>
+        <v>0.00323420697982105</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02163066613921604</v>
+        <v>0.02163066613921593</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2089066966603234</v>
+        <v>0.2089066966603222</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7447400403194997</v>
+        <v>0.7447400403194957</v>
       </c>
       <c r="J21" t="n">
-        <v>2.043623593442337</v>
+        <v>2.043623593442326</v>
       </c>
       <c r="K21" t="n">
-        <v>3.492878224769811</v>
+        <v>3.492878224769793</v>
       </c>
       <c r="L21" t="n">
-        <v>4.696605821148641</v>
+        <v>4.696605821148616</v>
       </c>
       <c r="M21" t="n">
-        <v>5.480717468695221</v>
+        <v>5.480717468695192</v>
       </c>
       <c r="N21" t="n">
-        <v>5.625775751707772</v>
+        <v>5.625775751707742</v>
       </c>
       <c r="O21" t="n">
-        <v>5.146485728307248</v>
+        <v>5.14648572830722</v>
       </c>
       <c r="P21" t="n">
-        <v>4.130508519163105</v>
+        <v>4.130508519163083</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.761135558402385</v>
+        <v>2.76113555840237</v>
       </c>
       <c r="R21" t="n">
-        <v>1.342998727485712</v>
+        <v>1.342998727485705</v>
       </c>
       <c r="S21" t="n">
-        <v>0.4017801364016661</v>
+        <v>0.4017801364016639</v>
       </c>
       <c r="T21" t="n">
-        <v>0.08718676395587514</v>
+        <v>0.08718676395587469</v>
       </c>
       <c r="U21" t="n">
-        <v>0.001423070140737898</v>
+        <v>0.00142307014073789</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0181344238699496</v>
+        <v>0.0181344238699495</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1612315140437338</v>
+        <v>0.161231514043733</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5453515832890299</v>
+        <v>0.545351583289027</v>
       </c>
       <c r="J22" t="n">
-        <v>1.282103767605436</v>
+        <v>1.28210376760543</v>
       </c>
       <c r="K22" t="n">
-        <v>2.106890336890507</v>
+        <v>2.106890336890496</v>
       </c>
       <c r="L22" t="n">
-        <v>2.696094254265052</v>
+        <v>2.696094254265038</v>
       </c>
       <c r="M22" t="n">
-        <v>2.842653370814008</v>
+        <v>2.842653370813993</v>
       </c>
       <c r="N22" t="n">
-        <v>2.775061427298743</v>
+        <v>2.775061427298729</v>
       </c>
       <c r="O22" t="n">
-        <v>2.563218384817968</v>
+        <v>2.563218384817954</v>
       </c>
       <c r="P22" t="n">
-        <v>2.193276137870994</v>
+        <v>2.193276137870982</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.518510711510052</v>
+        <v>1.518510711510044</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8153896405524608</v>
+        <v>0.8153896405524564</v>
       </c>
       <c r="S22" t="n">
-        <v>0.316033550533576</v>
+        <v>0.3160335505335743</v>
       </c>
       <c r="T22" t="n">
-        <v>0.07748344744433007</v>
+        <v>0.07748344744432967</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0009891503929063427</v>
+        <v>0.0009891503929063375</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04042758724776335</v>
+        <v>0.04042758724776314</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4140290279011565</v>
+        <v>0.4140290279011543</v>
       </c>
       <c r="I23" t="n">
-        <v>1.558584557369398</v>
+        <v>1.55858455736939</v>
       </c>
       <c r="J23" t="n">
-        <v>3.431240933169858</v>
+        <v>3.431240933169839</v>
       </c>
       <c r="K23" t="n">
-        <v>5.142540701367682</v>
+        <v>5.142540701367654</v>
       </c>
       <c r="L23" t="n">
-        <v>6.37977647460142</v>
+        <v>6.379776474601386</v>
       </c>
       <c r="M23" t="n">
-        <v>7.098730579318832</v>
+        <v>7.098730579318794</v>
       </c>
       <c r="N23" t="n">
-        <v>7.213595461586539</v>
+        <v>7.213595461586501</v>
       </c>
       <c r="O23" t="n">
-        <v>6.811593640891592</v>
+        <v>6.811593640891556</v>
       </c>
       <c r="P23" t="n">
-        <v>5.813537580712434</v>
+        <v>5.813537580712403</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.365724612401907</v>
+        <v>4.365724612401884</v>
       </c>
       <c r="R23" t="n">
-        <v>2.539509427452317</v>
+        <v>2.539509427452303</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9212436444084082</v>
+        <v>0.9212436444084033</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1769717631770842</v>
+        <v>0.1769717631770832</v>
       </c>
       <c r="U23" t="n">
-        <v>0.003234206979821067</v>
+        <v>0.00323420697982105</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02163066613921604</v>
+        <v>0.02163066613921593</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2089066966603234</v>
+        <v>0.2089066966603222</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7447400403194997</v>
+        <v>0.7447400403194957</v>
       </c>
       <c r="J24" t="n">
-        <v>2.043623593442337</v>
+        <v>2.043623593442326</v>
       </c>
       <c r="K24" t="n">
-        <v>3.492878224769811</v>
+        <v>3.492878224769793</v>
       </c>
       <c r="L24" t="n">
-        <v>4.696605821148641</v>
+        <v>4.696605821148616</v>
       </c>
       <c r="M24" t="n">
-        <v>5.480717468695221</v>
+        <v>5.480717468695192</v>
       </c>
       <c r="N24" t="n">
-        <v>5.625775751707772</v>
+        <v>5.625775751707742</v>
       </c>
       <c r="O24" t="n">
-        <v>5.146485728307248</v>
+        <v>5.14648572830722</v>
       </c>
       <c r="P24" t="n">
-        <v>4.130508519163105</v>
+        <v>4.130508519163083</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.761135558402385</v>
+        <v>2.76113555840237</v>
       </c>
       <c r="R24" t="n">
-        <v>1.342998727485712</v>
+        <v>1.342998727485705</v>
       </c>
       <c r="S24" t="n">
-        <v>0.4017801364016661</v>
+        <v>0.4017801364016639</v>
       </c>
       <c r="T24" t="n">
-        <v>0.08718676395587514</v>
+        <v>0.08718676395587469</v>
       </c>
       <c r="U24" t="n">
-        <v>0.001423070140737898</v>
+        <v>0.00142307014073789</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0181344238699496</v>
+        <v>0.0181344238699495</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1612315140437338</v>
+        <v>0.161231514043733</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5453515832890299</v>
+        <v>0.545351583289027</v>
       </c>
       <c r="J25" t="n">
-        <v>1.282103767605436</v>
+        <v>1.28210376760543</v>
       </c>
       <c r="K25" t="n">
-        <v>2.106890336890507</v>
+        <v>2.106890336890496</v>
       </c>
       <c r="L25" t="n">
-        <v>2.696094254265052</v>
+        <v>2.696094254265038</v>
       </c>
       <c r="M25" t="n">
-        <v>2.842653370814008</v>
+        <v>2.842653370813993</v>
       </c>
       <c r="N25" t="n">
-        <v>2.775061427298743</v>
+        <v>2.775061427298729</v>
       </c>
       <c r="O25" t="n">
-        <v>2.563218384817968</v>
+        <v>2.563218384817954</v>
       </c>
       <c r="P25" t="n">
-        <v>2.193276137870994</v>
+        <v>2.193276137870982</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.518510711510052</v>
+        <v>1.518510711510044</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8153896405524608</v>
+        <v>0.8153896405524564</v>
       </c>
       <c r="S25" t="n">
-        <v>0.316033550533576</v>
+        <v>0.3160335505335743</v>
       </c>
       <c r="T25" t="n">
-        <v>0.07748344744433007</v>
+        <v>0.07748344744432967</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0009891503929063427</v>
+        <v>0.0009891503929063375</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04042758724776335</v>
+        <v>0.04042758724776314</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4140290279011565</v>
+        <v>0.4140290279011543</v>
       </c>
       <c r="I26" t="n">
-        <v>1.558584557369398</v>
+        <v>1.55858455736939</v>
       </c>
       <c r="J26" t="n">
-        <v>3.431240933169858</v>
+        <v>3.431240933169839</v>
       </c>
       <c r="K26" t="n">
-        <v>5.142540701367682</v>
+        <v>5.142540701367654</v>
       </c>
       <c r="L26" t="n">
-        <v>6.37977647460142</v>
+        <v>6.379776474601386</v>
       </c>
       <c r="M26" t="n">
-        <v>7.098730579318832</v>
+        <v>7.098730579318794</v>
       </c>
       <c r="N26" t="n">
-        <v>7.213595461586539</v>
+        <v>7.213595461586501</v>
       </c>
       <c r="O26" t="n">
-        <v>6.811593640891592</v>
+        <v>6.811593640891556</v>
       </c>
       <c r="P26" t="n">
-        <v>5.813537580712434</v>
+        <v>5.813537580712403</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.365724612401907</v>
+        <v>4.365724612401884</v>
       </c>
       <c r="R26" t="n">
-        <v>2.539509427452317</v>
+        <v>2.539509427452303</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9212436444084082</v>
+        <v>0.9212436444084033</v>
       </c>
       <c r="T26" t="n">
-        <v>0.1769717631770842</v>
+        <v>0.1769717631770832</v>
       </c>
       <c r="U26" t="n">
-        <v>0.003234206979821067</v>
+        <v>0.00323420697982105</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02163066613921604</v>
+        <v>0.02163066613921593</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2089066966603234</v>
+        <v>0.2089066966603222</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7447400403194997</v>
+        <v>0.7447400403194957</v>
       </c>
       <c r="J27" t="n">
-        <v>2.043623593442337</v>
+        <v>2.043623593442326</v>
       </c>
       <c r="K27" t="n">
-        <v>3.492878224769811</v>
+        <v>3.492878224769793</v>
       </c>
       <c r="L27" t="n">
-        <v>4.696605821148641</v>
+        <v>4.696605821148616</v>
       </c>
       <c r="M27" t="n">
-        <v>5.480717468695221</v>
+        <v>5.480717468695192</v>
       </c>
       <c r="N27" t="n">
-        <v>5.625775751707772</v>
+        <v>5.625775751707742</v>
       </c>
       <c r="O27" t="n">
-        <v>5.146485728307248</v>
+        <v>5.14648572830722</v>
       </c>
       <c r="P27" t="n">
-        <v>4.130508519163105</v>
+        <v>4.130508519163083</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.761135558402385</v>
+        <v>2.76113555840237</v>
       </c>
       <c r="R27" t="n">
-        <v>1.342998727485712</v>
+        <v>1.342998727485705</v>
       </c>
       <c r="S27" t="n">
-        <v>0.4017801364016661</v>
+        <v>0.4017801364016639</v>
       </c>
       <c r="T27" t="n">
-        <v>0.08718676395587514</v>
+        <v>0.08718676395587469</v>
       </c>
       <c r="U27" t="n">
-        <v>0.001423070140737898</v>
+        <v>0.00142307014073789</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0181344238699496</v>
+        <v>0.0181344238699495</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1612315140437338</v>
+        <v>0.161231514043733</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5453515832890299</v>
+        <v>0.545351583289027</v>
       </c>
       <c r="J28" t="n">
-        <v>1.282103767605436</v>
+        <v>1.28210376760543</v>
       </c>
       <c r="K28" t="n">
-        <v>2.106890336890507</v>
+        <v>2.106890336890496</v>
       </c>
       <c r="L28" t="n">
-        <v>2.696094254265052</v>
+        <v>2.696094254265038</v>
       </c>
       <c r="M28" t="n">
-        <v>2.842653370814008</v>
+        <v>2.842653370813993</v>
       </c>
       <c r="N28" t="n">
-        <v>2.775061427298743</v>
+        <v>2.775061427298729</v>
       </c>
       <c r="O28" t="n">
-        <v>2.563218384817968</v>
+        <v>2.563218384817954</v>
       </c>
       <c r="P28" t="n">
-        <v>2.193276137870994</v>
+        <v>2.193276137870982</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.518510711510052</v>
+        <v>1.518510711510044</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8153896405524608</v>
+        <v>0.8153896405524564</v>
       </c>
       <c r="S28" t="n">
-        <v>0.316033550533576</v>
+        <v>0.3160335505335743</v>
       </c>
       <c r="T28" t="n">
-        <v>0.07748344744433007</v>
+        <v>0.07748344744432967</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0009891503929063427</v>
+        <v>0.0009891503929063375</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04042758724776335</v>
+        <v>0.04042758724776314</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4140290279011565</v>
+        <v>0.4140290279011543</v>
       </c>
       <c r="I29" t="n">
-        <v>1.558584557369398</v>
+        <v>1.55858455736939</v>
       </c>
       <c r="J29" t="n">
-        <v>3.431240933169858</v>
+        <v>3.431240933169839</v>
       </c>
       <c r="K29" t="n">
-        <v>5.142540701367682</v>
+        <v>5.142540701367654</v>
       </c>
       <c r="L29" t="n">
-        <v>6.37977647460142</v>
+        <v>6.379776474601386</v>
       </c>
       <c r="M29" t="n">
-        <v>7.098730579318832</v>
+        <v>7.098730579318794</v>
       </c>
       <c r="N29" t="n">
-        <v>7.213595461586539</v>
+        <v>7.213595461586501</v>
       </c>
       <c r="O29" t="n">
-        <v>6.811593640891592</v>
+        <v>6.811593640891556</v>
       </c>
       <c r="P29" t="n">
-        <v>5.813537580712434</v>
+        <v>5.813537580712403</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.365724612401907</v>
+        <v>4.365724612401884</v>
       </c>
       <c r="R29" t="n">
-        <v>2.539509427452317</v>
+        <v>2.539509427452303</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9212436444084082</v>
+        <v>0.9212436444084033</v>
       </c>
       <c r="T29" t="n">
-        <v>0.1769717631770842</v>
+        <v>0.1769717631770832</v>
       </c>
       <c r="U29" t="n">
-        <v>0.003234206979821067</v>
+        <v>0.00323420697982105</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02163066613921604</v>
+        <v>0.02163066613921593</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2089066966603234</v>
+        <v>0.2089066966603222</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7447400403194997</v>
+        <v>0.7447400403194957</v>
       </c>
       <c r="J30" t="n">
-        <v>2.043623593442337</v>
+        <v>2.043623593442326</v>
       </c>
       <c r="K30" t="n">
-        <v>3.492878224769811</v>
+        <v>3.492878224769793</v>
       </c>
       <c r="L30" t="n">
-        <v>4.696605821148641</v>
+        <v>4.696605821148616</v>
       </c>
       <c r="M30" t="n">
-        <v>5.480717468695221</v>
+        <v>5.480717468695192</v>
       </c>
       <c r="N30" t="n">
-        <v>5.625775751707772</v>
+        <v>5.625775751707742</v>
       </c>
       <c r="O30" t="n">
-        <v>5.146485728307248</v>
+        <v>5.14648572830722</v>
       </c>
       <c r="P30" t="n">
-        <v>4.130508519163105</v>
+        <v>4.130508519163083</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.761135558402385</v>
+        <v>2.76113555840237</v>
       </c>
       <c r="R30" t="n">
-        <v>1.342998727485712</v>
+        <v>1.342998727485705</v>
       </c>
       <c r="S30" t="n">
-        <v>0.4017801364016661</v>
+        <v>0.4017801364016639</v>
       </c>
       <c r="T30" t="n">
-        <v>0.08718676395587514</v>
+        <v>0.08718676395587469</v>
       </c>
       <c r="U30" t="n">
-        <v>0.001423070140737898</v>
+        <v>0.00142307014073789</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0181344238699496</v>
+        <v>0.0181344238699495</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1612315140437338</v>
+        <v>0.161231514043733</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5453515832890299</v>
+        <v>0.545351583289027</v>
       </c>
       <c r="J31" t="n">
-        <v>1.282103767605436</v>
+        <v>1.28210376760543</v>
       </c>
       <c r="K31" t="n">
-        <v>2.106890336890507</v>
+        <v>2.106890336890496</v>
       </c>
       <c r="L31" t="n">
-        <v>2.696094254265052</v>
+        <v>2.696094254265038</v>
       </c>
       <c r="M31" t="n">
-        <v>2.842653370814008</v>
+        <v>2.842653370813993</v>
       </c>
       <c r="N31" t="n">
-        <v>2.775061427298743</v>
+        <v>2.775061427298729</v>
       </c>
       <c r="O31" t="n">
-        <v>2.563218384817968</v>
+        <v>2.563218384817954</v>
       </c>
       <c r="P31" t="n">
-        <v>2.193276137870994</v>
+        <v>2.193276137870982</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.518510711510052</v>
+        <v>1.518510711510044</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8153896405524608</v>
+        <v>0.8153896405524564</v>
       </c>
       <c r="S31" t="n">
-        <v>0.316033550533576</v>
+        <v>0.3160335505335743</v>
       </c>
       <c r="T31" t="n">
-        <v>0.07748344744433007</v>
+        <v>0.07748344744432967</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0009891503929063427</v>
+        <v>0.0009891503929063375</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04042758724776335</v>
+        <v>0.04042758724776314</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4140290279011565</v>
+        <v>0.4140290279011543</v>
       </c>
       <c r="I32" t="n">
-        <v>1.558584557369398</v>
+        <v>1.55858455736939</v>
       </c>
       <c r="J32" t="n">
-        <v>3.431240933169858</v>
+        <v>3.431240933169839</v>
       </c>
       <c r="K32" t="n">
-        <v>5.142540701367682</v>
+        <v>5.142540701367654</v>
       </c>
       <c r="L32" t="n">
-        <v>6.37977647460142</v>
+        <v>6.379776474601386</v>
       </c>
       <c r="M32" t="n">
-        <v>7.098730579318832</v>
+        <v>7.098730579318794</v>
       </c>
       <c r="N32" t="n">
-        <v>7.213595461586539</v>
+        <v>7.213595461586501</v>
       </c>
       <c r="O32" t="n">
-        <v>6.811593640891592</v>
+        <v>6.811593640891556</v>
       </c>
       <c r="P32" t="n">
-        <v>5.813537580712434</v>
+        <v>5.813537580712403</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.365724612401907</v>
+        <v>4.365724612401884</v>
       </c>
       <c r="R32" t="n">
-        <v>2.539509427452317</v>
+        <v>2.539509427452303</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9212436444084082</v>
+        <v>0.9212436444084033</v>
       </c>
       <c r="T32" t="n">
-        <v>0.1769717631770842</v>
+        <v>0.1769717631770832</v>
       </c>
       <c r="U32" t="n">
-        <v>0.003234206979821067</v>
+        <v>0.00323420697982105</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02163066613921604</v>
+        <v>0.02163066613921593</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2089066966603234</v>
+        <v>0.2089066966603222</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7447400403194997</v>
+        <v>0.7447400403194957</v>
       </c>
       <c r="J33" t="n">
-        <v>2.043623593442337</v>
+        <v>2.043623593442326</v>
       </c>
       <c r="K33" t="n">
-        <v>3.492878224769811</v>
+        <v>3.492878224769793</v>
       </c>
       <c r="L33" t="n">
-        <v>4.696605821148641</v>
+        <v>4.696605821148616</v>
       </c>
       <c r="M33" t="n">
-        <v>5.480717468695221</v>
+        <v>5.480717468695192</v>
       </c>
       <c r="N33" t="n">
-        <v>5.625775751707772</v>
+        <v>5.625775751707742</v>
       </c>
       <c r="O33" t="n">
-        <v>5.146485728307248</v>
+        <v>5.14648572830722</v>
       </c>
       <c r="P33" t="n">
-        <v>4.130508519163105</v>
+        <v>4.130508519163083</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.761135558402385</v>
+        <v>2.76113555840237</v>
       </c>
       <c r="R33" t="n">
-        <v>1.342998727485712</v>
+        <v>1.342998727485705</v>
       </c>
       <c r="S33" t="n">
-        <v>0.4017801364016661</v>
+        <v>0.4017801364016639</v>
       </c>
       <c r="T33" t="n">
-        <v>0.08718676395587514</v>
+        <v>0.08718676395587469</v>
       </c>
       <c r="U33" t="n">
-        <v>0.001423070140737898</v>
+        <v>0.00142307014073789</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0181344238699496</v>
+        <v>0.0181344238699495</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1612315140437338</v>
+        <v>0.161231514043733</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5453515832890299</v>
+        <v>0.545351583289027</v>
       </c>
       <c r="J34" t="n">
-        <v>1.282103767605436</v>
+        <v>1.28210376760543</v>
       </c>
       <c r="K34" t="n">
-        <v>2.106890336890507</v>
+        <v>2.106890336890496</v>
       </c>
       <c r="L34" t="n">
-        <v>2.696094254265052</v>
+        <v>2.696094254265038</v>
       </c>
       <c r="M34" t="n">
-        <v>2.842653370814008</v>
+        <v>2.842653370813993</v>
       </c>
       <c r="N34" t="n">
-        <v>2.775061427298743</v>
+        <v>2.775061427298729</v>
       </c>
       <c r="O34" t="n">
-        <v>2.563218384817968</v>
+        <v>2.563218384817954</v>
       </c>
       <c r="P34" t="n">
-        <v>2.193276137870994</v>
+        <v>2.193276137870982</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.518510711510052</v>
+        <v>1.518510711510044</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8153896405524608</v>
+        <v>0.8153896405524564</v>
       </c>
       <c r="S34" t="n">
-        <v>0.316033550533576</v>
+        <v>0.3160335505335743</v>
       </c>
       <c r="T34" t="n">
-        <v>0.07748344744433007</v>
+        <v>0.07748344744432967</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0009891503929063427</v>
+        <v>0.0009891503929063375</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04042758724776335</v>
+        <v>0.04042758724776314</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4140290279011565</v>
+        <v>0.4140290279011543</v>
       </c>
       <c r="I35" t="n">
-        <v>1.558584557369398</v>
+        <v>1.55858455736939</v>
       </c>
       <c r="J35" t="n">
-        <v>3.431240933169858</v>
+        <v>3.431240933169839</v>
       </c>
       <c r="K35" t="n">
-        <v>5.142540701367682</v>
+        <v>5.142540701367654</v>
       </c>
       <c r="L35" t="n">
-        <v>6.37977647460142</v>
+        <v>6.379776474601386</v>
       </c>
       <c r="M35" t="n">
-        <v>7.098730579318832</v>
+        <v>7.098730579318794</v>
       </c>
       <c r="N35" t="n">
-        <v>7.213595461586539</v>
+        <v>7.213595461586501</v>
       </c>
       <c r="O35" t="n">
-        <v>6.811593640891592</v>
+        <v>6.811593640891556</v>
       </c>
       <c r="P35" t="n">
-        <v>5.813537580712434</v>
+        <v>5.813537580712403</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.365724612401907</v>
+        <v>4.365724612401884</v>
       </c>
       <c r="R35" t="n">
-        <v>2.539509427452317</v>
+        <v>2.539509427452303</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9212436444084082</v>
+        <v>0.9212436444084033</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1769717631770842</v>
+        <v>0.1769717631770832</v>
       </c>
       <c r="U35" t="n">
-        <v>0.003234206979821067</v>
+        <v>0.00323420697982105</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02163066613921604</v>
+        <v>0.02163066613921593</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2089066966603234</v>
+        <v>0.2089066966603222</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7447400403194997</v>
+        <v>0.7447400403194957</v>
       </c>
       <c r="J36" t="n">
-        <v>2.043623593442337</v>
+        <v>2.043623593442326</v>
       </c>
       <c r="K36" t="n">
-        <v>3.492878224769811</v>
+        <v>3.492878224769793</v>
       </c>
       <c r="L36" t="n">
-        <v>4.696605821148641</v>
+        <v>4.696605821148616</v>
       </c>
       <c r="M36" t="n">
-        <v>5.480717468695221</v>
+        <v>5.480717468695192</v>
       </c>
       <c r="N36" t="n">
-        <v>5.625775751707772</v>
+        <v>5.625775751707742</v>
       </c>
       <c r="O36" t="n">
-        <v>5.146485728307248</v>
+        <v>5.14648572830722</v>
       </c>
       <c r="P36" t="n">
-        <v>4.130508519163105</v>
+        <v>4.130508519163083</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.761135558402385</v>
+        <v>2.76113555840237</v>
       </c>
       <c r="R36" t="n">
-        <v>1.342998727485712</v>
+        <v>1.342998727485705</v>
       </c>
       <c r="S36" t="n">
-        <v>0.4017801364016661</v>
+        <v>0.4017801364016639</v>
       </c>
       <c r="T36" t="n">
-        <v>0.08718676395587514</v>
+        <v>0.08718676395587469</v>
       </c>
       <c r="U36" t="n">
-        <v>0.001423070140737898</v>
+        <v>0.00142307014073789</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0181344238699496</v>
+        <v>0.0181344238699495</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1612315140437338</v>
+        <v>0.161231514043733</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5453515832890299</v>
+        <v>0.545351583289027</v>
       </c>
       <c r="J37" t="n">
-        <v>1.282103767605436</v>
+        <v>1.28210376760543</v>
       </c>
       <c r="K37" t="n">
-        <v>2.106890336890507</v>
+        <v>2.106890336890496</v>
       </c>
       <c r="L37" t="n">
-        <v>2.696094254265052</v>
+        <v>2.696094254265038</v>
       </c>
       <c r="M37" t="n">
-        <v>2.842653370814008</v>
+        <v>2.842653370813993</v>
       </c>
       <c r="N37" t="n">
-        <v>2.775061427298743</v>
+        <v>2.775061427298729</v>
       </c>
       <c r="O37" t="n">
-        <v>2.563218384817968</v>
+        <v>2.563218384817954</v>
       </c>
       <c r="P37" t="n">
-        <v>2.193276137870994</v>
+        <v>2.193276137870982</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.518510711510052</v>
+        <v>1.518510711510044</v>
       </c>
       <c r="R37" t="n">
-        <v>0.8153896405524608</v>
+        <v>0.8153896405524564</v>
       </c>
       <c r="S37" t="n">
-        <v>0.316033550533576</v>
+        <v>0.3160335505335743</v>
       </c>
       <c r="T37" t="n">
-        <v>0.07748344744433007</v>
+        <v>0.07748344744432967</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0009891503929063427</v>
+        <v>0.0009891503929063375</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04042758724776335</v>
+        <v>0.04042758724776314</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4140290279011565</v>
+        <v>0.4140290279011543</v>
       </c>
       <c r="I38" t="n">
-        <v>1.558584557369398</v>
+        <v>1.55858455736939</v>
       </c>
       <c r="J38" t="n">
-        <v>3.431240933169858</v>
+        <v>3.431240933169839</v>
       </c>
       <c r="K38" t="n">
-        <v>5.142540701367682</v>
+        <v>5.142540701367654</v>
       </c>
       <c r="L38" t="n">
-        <v>6.37977647460142</v>
+        <v>6.379776474601386</v>
       </c>
       <c r="M38" t="n">
-        <v>7.098730579318832</v>
+        <v>7.098730579318794</v>
       </c>
       <c r="N38" t="n">
-        <v>7.213595461586539</v>
+        <v>7.213595461586501</v>
       </c>
       <c r="O38" t="n">
-        <v>6.811593640891592</v>
+        <v>6.811593640891556</v>
       </c>
       <c r="P38" t="n">
-        <v>5.813537580712434</v>
+        <v>5.813537580712403</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.365724612401907</v>
+        <v>4.365724612401884</v>
       </c>
       <c r="R38" t="n">
-        <v>2.539509427452317</v>
+        <v>2.539509427452303</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9212436444084082</v>
+        <v>0.9212436444084033</v>
       </c>
       <c r="T38" t="n">
-        <v>0.1769717631770842</v>
+        <v>0.1769717631770832</v>
       </c>
       <c r="U38" t="n">
-        <v>0.003234206979821067</v>
+        <v>0.00323420697982105</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02163066613921604</v>
+        <v>0.02163066613921593</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2089066966603234</v>
+        <v>0.2089066966603222</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7447400403194997</v>
+        <v>0.7447400403194957</v>
       </c>
       <c r="J39" t="n">
-        <v>2.043623593442337</v>
+        <v>2.043623593442326</v>
       </c>
       <c r="K39" t="n">
-        <v>3.492878224769811</v>
+        <v>3.492878224769793</v>
       </c>
       <c r="L39" t="n">
-        <v>4.696605821148641</v>
+        <v>4.696605821148616</v>
       </c>
       <c r="M39" t="n">
-        <v>5.480717468695221</v>
+        <v>5.480717468695192</v>
       </c>
       <c r="N39" t="n">
-        <v>5.625775751707772</v>
+        <v>5.625775751707742</v>
       </c>
       <c r="O39" t="n">
-        <v>5.146485728307248</v>
+        <v>5.14648572830722</v>
       </c>
       <c r="P39" t="n">
-        <v>4.130508519163105</v>
+        <v>4.130508519163083</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.761135558402385</v>
+        <v>2.76113555840237</v>
       </c>
       <c r="R39" t="n">
-        <v>1.342998727485712</v>
+        <v>1.342998727485705</v>
       </c>
       <c r="S39" t="n">
-        <v>0.4017801364016661</v>
+        <v>0.4017801364016639</v>
       </c>
       <c r="T39" t="n">
-        <v>0.08718676395587514</v>
+        <v>0.08718676395587469</v>
       </c>
       <c r="U39" t="n">
-        <v>0.001423070140737898</v>
+        <v>0.00142307014073789</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0181344238699496</v>
+        <v>0.0181344238699495</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1612315140437338</v>
+        <v>0.161231514043733</v>
       </c>
       <c r="I40" t="n">
-        <v>0.5453515832890299</v>
+        <v>0.545351583289027</v>
       </c>
       <c r="J40" t="n">
-        <v>1.282103767605436</v>
+        <v>1.28210376760543</v>
       </c>
       <c r="K40" t="n">
-        <v>2.106890336890507</v>
+        <v>2.106890336890496</v>
       </c>
       <c r="L40" t="n">
-        <v>2.696094254265052</v>
+        <v>2.696094254265038</v>
       </c>
       <c r="M40" t="n">
-        <v>2.842653370814008</v>
+        <v>2.842653370813993</v>
       </c>
       <c r="N40" t="n">
-        <v>2.775061427298743</v>
+        <v>2.775061427298729</v>
       </c>
       <c r="O40" t="n">
-        <v>2.563218384817968</v>
+        <v>2.563218384817954</v>
       </c>
       <c r="P40" t="n">
-        <v>2.193276137870994</v>
+        <v>2.193276137870982</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.518510711510052</v>
+        <v>1.518510711510044</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8153896405524608</v>
+        <v>0.8153896405524564</v>
       </c>
       <c r="S40" t="n">
-        <v>0.316033550533576</v>
+        <v>0.3160335505335743</v>
       </c>
       <c r="T40" t="n">
-        <v>0.07748344744433007</v>
+        <v>0.07748344744432967</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0009891503929063427</v>
+        <v>0.0009891503929063375</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04042758724776335</v>
+        <v>0.04042758724776314</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4140290279011565</v>
+        <v>0.4140290279011543</v>
       </c>
       <c r="I41" t="n">
-        <v>1.558584557369398</v>
+        <v>1.55858455736939</v>
       </c>
       <c r="J41" t="n">
-        <v>3.431240933169858</v>
+        <v>3.431240933169839</v>
       </c>
       <c r="K41" t="n">
-        <v>5.142540701367682</v>
+        <v>5.142540701367654</v>
       </c>
       <c r="L41" t="n">
-        <v>6.37977647460142</v>
+        <v>6.379776474601386</v>
       </c>
       <c r="M41" t="n">
-        <v>7.098730579318832</v>
+        <v>7.098730579318794</v>
       </c>
       <c r="N41" t="n">
-        <v>7.213595461586539</v>
+        <v>7.213595461586501</v>
       </c>
       <c r="O41" t="n">
-        <v>6.811593640891592</v>
+        <v>6.811593640891556</v>
       </c>
       <c r="P41" t="n">
-        <v>5.813537580712434</v>
+        <v>5.813537580712403</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.365724612401907</v>
+        <v>4.365724612401884</v>
       </c>
       <c r="R41" t="n">
-        <v>2.539509427452317</v>
+        <v>2.539509427452303</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9212436444084082</v>
+        <v>0.9212436444084033</v>
       </c>
       <c r="T41" t="n">
-        <v>0.1769717631770842</v>
+        <v>0.1769717631770832</v>
       </c>
       <c r="U41" t="n">
-        <v>0.003234206979821067</v>
+        <v>0.00323420697982105</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02163066613921604</v>
+        <v>0.02163066613921593</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2089066966603234</v>
+        <v>0.2089066966603222</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7447400403194997</v>
+        <v>0.7447400403194957</v>
       </c>
       <c r="J42" t="n">
-        <v>2.043623593442337</v>
+        <v>2.043623593442326</v>
       </c>
       <c r="K42" t="n">
-        <v>3.492878224769811</v>
+        <v>3.492878224769793</v>
       </c>
       <c r="L42" t="n">
-        <v>4.696605821148641</v>
+        <v>4.696605821148616</v>
       </c>
       <c r="M42" t="n">
-        <v>5.480717468695221</v>
+        <v>5.480717468695192</v>
       </c>
       <c r="N42" t="n">
-        <v>5.625775751707772</v>
+        <v>5.625775751707742</v>
       </c>
       <c r="O42" t="n">
-        <v>5.146485728307248</v>
+        <v>5.14648572830722</v>
       </c>
       <c r="P42" t="n">
-        <v>4.130508519163105</v>
+        <v>4.130508519163083</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.761135558402385</v>
+        <v>2.76113555840237</v>
       </c>
       <c r="R42" t="n">
-        <v>1.342998727485712</v>
+        <v>1.342998727485705</v>
       </c>
       <c r="S42" t="n">
-        <v>0.4017801364016661</v>
+        <v>0.4017801364016639</v>
       </c>
       <c r="T42" t="n">
-        <v>0.08718676395587514</v>
+        <v>0.08718676395587469</v>
       </c>
       <c r="U42" t="n">
-        <v>0.001423070140737898</v>
+        <v>0.00142307014073789</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0181344238699496</v>
+        <v>0.0181344238699495</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1612315140437338</v>
+        <v>0.161231514043733</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5453515832890299</v>
+        <v>0.545351583289027</v>
       </c>
       <c r="J43" t="n">
-        <v>1.282103767605436</v>
+        <v>1.28210376760543</v>
       </c>
       <c r="K43" t="n">
-        <v>2.106890336890507</v>
+        <v>2.106890336890496</v>
       </c>
       <c r="L43" t="n">
-        <v>2.696094254265052</v>
+        <v>2.696094254265038</v>
       </c>
       <c r="M43" t="n">
-        <v>2.842653370814008</v>
+        <v>2.842653370813993</v>
       </c>
       <c r="N43" t="n">
-        <v>2.775061427298743</v>
+        <v>2.775061427298729</v>
       </c>
       <c r="O43" t="n">
-        <v>2.563218384817968</v>
+        <v>2.563218384817954</v>
       </c>
       <c r="P43" t="n">
-        <v>2.193276137870994</v>
+        <v>2.193276137870982</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.518510711510052</v>
+        <v>1.518510711510044</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8153896405524608</v>
+        <v>0.8153896405524564</v>
       </c>
       <c r="S43" t="n">
-        <v>0.316033550533576</v>
+        <v>0.3160335505335743</v>
       </c>
       <c r="T43" t="n">
-        <v>0.07748344744433007</v>
+        <v>0.07748344744432967</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0009891503929063427</v>
+        <v>0.0009891503929063375</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04042758724776335</v>
+        <v>0.04042758724776314</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4140290279011565</v>
+        <v>0.4140290279011543</v>
       </c>
       <c r="I44" t="n">
-        <v>1.558584557369398</v>
+        <v>1.55858455736939</v>
       </c>
       <c r="J44" t="n">
-        <v>3.431240933169858</v>
+        <v>3.431240933169839</v>
       </c>
       <c r="K44" t="n">
-        <v>5.142540701367682</v>
+        <v>5.142540701367654</v>
       </c>
       <c r="L44" t="n">
-        <v>6.37977647460142</v>
+        <v>6.379776474601386</v>
       </c>
       <c r="M44" t="n">
-        <v>7.098730579318832</v>
+        <v>7.098730579318794</v>
       </c>
       <c r="N44" t="n">
-        <v>7.213595461586539</v>
+        <v>7.213595461586501</v>
       </c>
       <c r="O44" t="n">
-        <v>6.811593640891592</v>
+        <v>6.811593640891556</v>
       </c>
       <c r="P44" t="n">
-        <v>5.813537580712434</v>
+        <v>5.813537580712403</v>
       </c>
       <c r="Q44" t="n">
-        <v>4.365724612401907</v>
+        <v>4.365724612401884</v>
       </c>
       <c r="R44" t="n">
-        <v>2.539509427452317</v>
+        <v>2.539509427452303</v>
       </c>
       <c r="S44" t="n">
-        <v>0.9212436444084082</v>
+        <v>0.9212436444084033</v>
       </c>
       <c r="T44" t="n">
-        <v>0.1769717631770842</v>
+        <v>0.1769717631770832</v>
       </c>
       <c r="U44" t="n">
-        <v>0.003234206979821067</v>
+        <v>0.00323420697982105</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02163066613921604</v>
+        <v>0.02163066613921593</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2089066966603234</v>
+        <v>0.2089066966603222</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7447400403194997</v>
+        <v>0.7447400403194957</v>
       </c>
       <c r="J45" t="n">
-        <v>2.043623593442337</v>
+        <v>2.043623593442326</v>
       </c>
       <c r="K45" t="n">
-        <v>3.492878224769811</v>
+        <v>3.492878224769793</v>
       </c>
       <c r="L45" t="n">
-        <v>4.696605821148641</v>
+        <v>4.696605821148616</v>
       </c>
       <c r="M45" t="n">
-        <v>5.480717468695221</v>
+        <v>5.480717468695192</v>
       </c>
       <c r="N45" t="n">
-        <v>5.625775751707772</v>
+        <v>5.625775751707742</v>
       </c>
       <c r="O45" t="n">
-        <v>5.146485728307248</v>
+        <v>5.14648572830722</v>
       </c>
       <c r="P45" t="n">
-        <v>4.130508519163105</v>
+        <v>4.130508519163083</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.761135558402385</v>
+        <v>2.76113555840237</v>
       </c>
       <c r="R45" t="n">
-        <v>1.342998727485712</v>
+        <v>1.342998727485705</v>
       </c>
       <c r="S45" t="n">
-        <v>0.4017801364016661</v>
+        <v>0.4017801364016639</v>
       </c>
       <c r="T45" t="n">
-        <v>0.08718676395587514</v>
+        <v>0.08718676395587469</v>
       </c>
       <c r="U45" t="n">
-        <v>0.001423070140737898</v>
+        <v>0.00142307014073789</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0181344238699496</v>
+        <v>0.0181344238699495</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1612315140437338</v>
+        <v>0.161231514043733</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5453515832890299</v>
+        <v>0.545351583289027</v>
       </c>
       <c r="J46" t="n">
-        <v>1.282103767605436</v>
+        <v>1.28210376760543</v>
       </c>
       <c r="K46" t="n">
-        <v>2.106890336890507</v>
+        <v>2.106890336890496</v>
       </c>
       <c r="L46" t="n">
-        <v>2.696094254265052</v>
+        <v>2.696094254265038</v>
       </c>
       <c r="M46" t="n">
-        <v>2.842653370814008</v>
+        <v>2.842653370813993</v>
       </c>
       <c r="N46" t="n">
-        <v>2.775061427298743</v>
+        <v>2.775061427298729</v>
       </c>
       <c r="O46" t="n">
-        <v>2.563218384817968</v>
+        <v>2.563218384817954</v>
       </c>
       <c r="P46" t="n">
-        <v>2.193276137870994</v>
+        <v>2.193276137870982</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.518510711510052</v>
+        <v>1.518510711510044</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8153896405524608</v>
+        <v>0.8153896405524564</v>
       </c>
       <c r="S46" t="n">
-        <v>0.316033550533576</v>
+        <v>0.3160335505335743</v>
       </c>
       <c r="T46" t="n">
-        <v>0.07748344744433007</v>
+        <v>0.07748344744432967</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0009891503929063427</v>
+        <v>0.0009891503929063375</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>461.3999057603342</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
+        <v>77.9459274203145</v>
+      </c>
+      <c r="P3" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M3" t="n">
-        <v>352.3878357835378</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34868,13 +34868,13 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>5.82435761961338</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>204.9421661810885</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34938,22 +34938,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>419.8550006816142</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35026,10 +35026,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>160.7937153846608</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="P6" t="n">
         <v>461.3999057603342</v>
@@ -35038,7 +35038,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35102,10 +35102,10 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M8" t="n">
-        <v>144.2794790315872</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>158.2737632597931</v>
+        <v>150.7519016821045</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>727.8782053230839</v>
       </c>
       <c r="L11" t="n">
-        <v>801.3069421087748</v>
+        <v>945.3949760900324</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>442.2533762061581</v>
       </c>
       <c r="N11" t="n">
-        <v>993.3257757511834</v>
+        <v>993.3257757511833</v>
       </c>
       <c r="O11" t="n">
         <v>860.4930584396917</v>
       </c>
       <c r="P11" t="n">
-        <v>721.2471528917505</v>
+        <v>721.2471528917504</v>
       </c>
       <c r="Q11" t="n">
-        <v>465.0581281519808</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>121.2832820354348</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.266601618008224</v>
       </c>
       <c r="J12" t="n">
-        <v>276.4855319566657</v>
+        <v>276.4855319566656</v>
       </c>
       <c r="K12" t="n">
-        <v>599.9422990008704</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>394.0080693075394</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1105.943903502081</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>471.5949505713108</v>
+        <v>351.3348137596311</v>
       </c>
       <c r="R12" t="n">
         <v>84.19078669183227</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.35415247887616</v>
+        <v>59.35415247887615</v>
       </c>
       <c r="K13" t="n">
         <v>230.9226491306654</v>
@@ -35655,22 +35655,22 @@
         <v>945.3949760900324</v>
       </c>
       <c r="M14" t="n">
-        <v>1021.529136053115</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>688.2016641565031</v>
+        <v>970.5210238053602</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>860.4930584396917</v>
       </c>
       <c r="P14" t="n">
-        <v>721.2471528917505</v>
+        <v>721.2471528917504</v>
       </c>
       <c r="Q14" t="n">
         <v>465.0581281519808</v>
       </c>
       <c r="R14" t="n">
-        <v>121.2832820354348</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.266601618008224</v>
       </c>
       <c r="J15" t="n">
-        <v>276.4855319566657</v>
+        <v>276.4855319566656</v>
       </c>
       <c r="K15" t="n">
-        <v>599.9422990008704</v>
+        <v>351.334813759631</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1105.943903502081</v>
       </c>
       <c r="O15" t="n">
-        <v>478.1988559993705</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>471.5949505713108</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>84.19078669183227</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.35415247887616</v>
+        <v>59.35415247887615</v>
       </c>
       <c r="K16" t="n">
         <v>230.9226491306654</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>369.697360950236</v>
       </c>
       <c r="K17" t="n">
         <v>727.8782053230839</v>
       </c>
       <c r="L17" t="n">
-        <v>614.5332951578768</v>
+        <v>945.3949760900324</v>
       </c>
       <c r="M17" t="n">
-        <v>1021.529136053115</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>993.3257757511834</v>
+        <v>970.5210238053602</v>
       </c>
       <c r="O17" t="n">
         <v>860.4930584396917</v>
       </c>
       <c r="P17" t="n">
-        <v>721.2471528917505</v>
+        <v>721.2471528917504</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>465.0581281519808</v>
       </c>
       <c r="R17" t="n">
-        <v>121.2832820354348</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>27.12184202424984</v>
+        <v>276.4855319566656</v>
       </c>
       <c r="K18" t="n">
-        <v>599.9422990008704</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>6.007368868874938</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1072.133786131367</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>727.5625459317873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>471.5949505713108</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.35415247887616</v>
+        <v>59.35415247887615</v>
       </c>
       <c r="K19" t="n">
         <v>230.9226491306654</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>369.697360950236</v>
       </c>
       <c r="K20" t="n">
         <v>727.8782053230839</v>
       </c>
       <c r="L20" t="n">
-        <v>945.3949760900324</v>
+        <v>922.5902241442093</v>
       </c>
       <c r="M20" t="n">
-        <v>1021.529136053115</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>993.3257757511834</v>
+        <v>993.3257757511833</v>
       </c>
       <c r="O20" t="n">
-        <v>650.9146595429715</v>
+        <v>860.4930584396917</v>
       </c>
       <c r="P20" t="n">
-        <v>721.2471528917505</v>
+        <v>721.2471528917504</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>465.0581281519808</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>8.266601618008224</v>
       </c>
       <c r="J21" t="n">
-        <v>276.4855319566657</v>
+        <v>276.4855319566656</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>599.9422990008704</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>385.7414676895312</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>903.6124231136321</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>561.9328957660884</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>471.5949505713108</v>
       </c>
       <c r="R21" t="n">
         <v>84.19078669183227</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.35415247887616</v>
+        <v>59.35415247887615</v>
       </c>
       <c r="K22" t="n">
         <v>230.9226491306654</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>185.8565313909906</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>727.8782053230839</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>945.3949760900324</v>
@@ -36369,19 +36369,19 @@
         <v>1021.529136053115</v>
       </c>
       <c r="N23" t="n">
-        <v>993.3257757511834</v>
+        <v>993.3257757511833</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>860.4930584396917</v>
       </c>
       <c r="P23" t="n">
-        <v>721.2471528917505</v>
+        <v>721.2471528917504</v>
       </c>
       <c r="Q23" t="n">
         <v>465.0581281519808</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>53.24167827438207</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>599.9422990008704</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>720.2777340261371</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1105.943903502081</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>27.12184202424991</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>727.5625459317873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>471.5949505713108</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.35415247887616</v>
+        <v>59.35415247887615</v>
       </c>
       <c r="K25" t="n">
         <v>230.9226491306654</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>53.24167827438211</v>
+        <v>369.697360950236</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>727.8782053230839</v>
       </c>
       <c r="L26" t="n">
         <v>945.3949760900324</v>
@@ -36606,16 +36606,16 @@
         <v>1021.529136053115</v>
       </c>
       <c r="N26" t="n">
-        <v>993.3257757511834</v>
+        <v>993.3257757511833</v>
       </c>
       <c r="O26" t="n">
         <v>860.4930584396917</v>
       </c>
       <c r="P26" t="n">
-        <v>721.2471528917505</v>
+        <v>141.9713930447943</v>
       </c>
       <c r="Q26" t="n">
-        <v>465.0581281519808</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>276.4855319566656</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>599.9422990008704</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>922.6092144145864</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>903.6124231136321</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>727.5625459317873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>222.2312606388951</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.35415247887616</v>
+        <v>59.35415247887615</v>
       </c>
       <c r="K28" t="n">
         <v>230.9226491306654</v>
@@ -36840,22 +36840,22 @@
         <v>945.3949760900324</v>
       </c>
       <c r="M29" t="n">
-        <v>1021.529136053115</v>
+        <v>577.1591189104932</v>
       </c>
       <c r="N29" t="n">
-        <v>993.3257757511834</v>
+        <v>993.3257757511833</v>
       </c>
       <c r="O29" t="n">
         <v>860.4930584396917</v>
       </c>
       <c r="P29" t="n">
-        <v>141.9713930447952</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>465.0581281519808</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>121.2832820354347</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.266601618008224</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>599.9422990008704</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.133786131367</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0878513968515</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>18.85524040624159</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>727.5625459317873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>471.5949505713108</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.35415247887616</v>
+        <v>59.35415247887615</v>
       </c>
       <c r="K31" t="n">
         <v>230.9226491306654</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>149.4751670058958</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>727.8782053230839</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>945.3949760900324</v>
       </c>
       <c r="M32" t="n">
-        <v>1021.529136053115</v>
+        <v>225.6093269689787</v>
       </c>
       <c r="N32" t="n">
-        <v>993.3257757511834</v>
+        <v>993.3257757511833</v>
       </c>
       <c r="O32" t="n">
         <v>860.4930584396917</v>
       </c>
       <c r="P32" t="n">
-        <v>721.2471528917505</v>
+        <v>721.2471528917504</v>
       </c>
       <c r="Q32" t="n">
         <v>465.0581281519808</v>
       </c>
       <c r="R32" t="n">
-        <v>121.2832820354348</v>
+        <v>121.2832820354347</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>276.4855319566656</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>599.9422990008704</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>720.2777340261371</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1105.943903502081</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>478.1988559993715</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>471.5949505713108</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.35415247887616</v>
+        <v>59.35415247887615</v>
       </c>
       <c r="K34" t="n">
         <v>230.9226491306654</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>46.61062584304878</v>
+        <v>369.697360950236</v>
       </c>
       <c r="K35" t="n">
         <v>727.8782053230839</v>
@@ -37314,16 +37314,16 @@
         <v>945.3949760900324</v>
       </c>
       <c r="M35" t="n">
-        <v>1021.529136053115</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>993.3257757511834</v>
+        <v>970.5210238053602</v>
       </c>
       <c r="O35" t="n">
         <v>860.4930584396917</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>721.2471528917504</v>
       </c>
       <c r="Q35" t="n">
         <v>465.0581281519808</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.266601618008224</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>276.4855319566656</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>599.9422990008704</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>720.2777340261371</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1105.943903502081</v>
+        <v>385.7414676895312</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>471.5949505713108</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>84.19078669183227</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.35415247887616</v>
+        <v>59.35415247887615</v>
       </c>
       <c r="K37" t="n">
         <v>230.9226491306654</v>
@@ -37551,19 +37551,19 @@
         <v>945.3949760900324</v>
       </c>
       <c r="M38" t="n">
-        <v>1021.529136053115</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>993.3257757511833</v>
       </c>
       <c r="O38" t="n">
         <v>860.4930584396917</v>
       </c>
       <c r="P38" t="n">
-        <v>721.2471528917505</v>
+        <v>721.2471528917504</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.0500159042271</v>
+        <v>442.2533762061581</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>599.9422990008704</v>
       </c>
       <c r="L39" t="n">
-        <v>849.9479271170135</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>27.12184202424991</v>
       </c>
       <c r="P39" t="n">
-        <v>376.3314114103345</v>
+        <v>727.5625459317873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>471.5949505713108</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.35415247887616</v>
+        <v>59.35415247887615</v>
       </c>
       <c r="K40" t="n">
         <v>230.9226491306654</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>369.697360950236</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>727.8782053230839</v>
       </c>
       <c r="L41" t="n">
-        <v>622.3082409828452</v>
+        <v>945.3949760900324</v>
       </c>
       <c r="M41" t="n">
         <v>1021.529136053115</v>
       </c>
       <c r="N41" t="n">
-        <v>993.3257757511834</v>
+        <v>993.3257757511833</v>
       </c>
       <c r="O41" t="n">
         <v>860.4930584396917</v>
@@ -37803,7 +37803,7 @@
         <v>465.0581281519808</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.61062584304862</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>276.4855319566657</v>
+        <v>276.4855319566656</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>599.9422990008704</v>
       </c>
       <c r="L42" t="n">
-        <v>849.9479271170135</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>699.7881784545393</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>727.5625459317873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>222.2312606388951</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.35415247887616</v>
+        <v>59.35415247887615</v>
       </c>
       <c r="K43" t="n">
         <v>230.9226491306654</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>369.697360950236</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>727.8782053230839</v>
@@ -38025,22 +38025,22 @@
         <v>945.3949760900324</v>
       </c>
       <c r="M44" t="n">
-        <v>1021.529136053115</v>
+        <v>811.9507371563941</v>
       </c>
       <c r="N44" t="n">
-        <v>993.3257757511834</v>
+        <v>993.3257757511833</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>860.4930584396917</v>
       </c>
       <c r="P44" t="n">
-        <v>416.1230412970703</v>
+        <v>721.2471528917504</v>
       </c>
       <c r="Q44" t="n">
-        <v>465.0581281519808</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>121.2832820354348</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>599.9422990008704</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>110.8558817909669</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>903.6124231136321</v>
+        <v>27.12184202424991</v>
       </c>
       <c r="P45" t="n">
         <v>727.5625459317873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>471.5949505713108</v>
       </c>
       <c r="R45" t="n">
-        <v>84.19078669183227</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.35415247887616</v>
+        <v>59.35415247887615</v>
       </c>
       <c r="K46" t="n">
         <v>230.9226491306654</v>
